--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Maquina" sheetId="1" state="visible" r:id="rId3"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="184">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">Pregunta</t>
   </si>
   <si>
+    <t xml:space="preserve">Tipo</t>
+  </si>
+  <si>
     <t xml:space="preserve">IIP2023</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pregunta 1. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿existen o existieron en su entidad acuerdos y/o actos administrativos relacionados con el concepto de innovación pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
   </si>
   <si>
     <t xml:space="preserve">Indicador 2. Planeación Estratégica: Existencia dentro de la planeación estratégica de la institución de una relación con el concepto de innovación pública.</t>
@@ -681,7 +687,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -704,6 +710,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -837,13 +847,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="2" width="20.35"/>
@@ -867,668 +877,788 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="A5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>17</v>
+      <c r="A6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="6" t="s">
+      <c r="A8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="A9" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="E9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
+      <c r="A10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>25</v>
+      <c r="A11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="6" t="s">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="E12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>27</v>
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="6" t="s">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>30</v>
       </c>
+      <c r="D14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>34</v>
       </c>
+      <c r="D15" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>36</v>
+      <c r="A16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>38</v>
+      <c r="A17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>40</v>
+      <c r="A18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" s="6" t="s">
+      <c r="A19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="E19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E20" s="6" t="s">
+      <c r="A20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="D20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>46</v>
+      <c r="A21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>48</v>
+      <c r="A22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="6" t="s">
+      <c r="A23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>49</v>
       </c>
+      <c r="E23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="6" t="s">
+      <c r="A24" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="7" t="s">
         <v>52</v>
       </c>
+      <c r="D24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="6" t="s">
+      <c r="A25" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>55</v>
       </c>
+      <c r="D25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="6" t="s">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>58</v>
       </c>
+      <c r="D26" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>60</v>
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>62</v>
+      <c r="A28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="A29" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>66</v>
       </c>
+      <c r="D29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="6" t="s">
+      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>69</v>
       </c>
+      <c r="D30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>71</v>
+      <c r="A31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="A32" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="C32" s="7" t="s">
         <v>75</v>
       </c>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>77</v>
+      <c r="A33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="A34" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="D34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>82</v>
+      <c r="A35" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>84</v>
+      <c r="A36" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>86</v>
+      <c r="A37" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>88</v>
+      <c r="A38" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>90</v>
+      <c r="A39" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="A40" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="7" t="s">
         <v>93</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1547,13 +1677,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:D1048576"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A33" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="2" width="20.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.95"/>
@@ -1574,415 +1704,535 @@
       <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>97</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>99</v>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>102</v>
       </c>
+      <c r="C4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>103</v>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>105</v>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6" t="s">
-        <v>106</v>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>109</v>
       </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>110</v>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>111</v>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>113</v>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6" t="s">
-        <v>114</v>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6" t="s">
-        <v>115</v>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7" t="s">
         <v>118</v>
       </c>
+      <c r="C14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="B15" s="8" t="s">
         <v>122</v>
       </c>
+      <c r="C15" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>124</v>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>126</v>
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>128</v>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6" t="s">
-        <v>129</v>
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="6" t="s">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>132</v>
       </c>
+      <c r="C20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>134</v>
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>136</v>
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>137</v>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>140</v>
       </c>
+      <c r="C24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7" t="s">
         <v>143</v>
       </c>
+      <c r="C25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7" t="s">
         <v>146</v>
       </c>
+      <c r="C26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>148</v>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>150</v>
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="7" t="s">
         <v>154</v>
       </c>
+      <c r="C29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>157</v>
       </c>
+      <c r="C30" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>159</v>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C32" s="6" t="s">
+      <c r="A32" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="7" t="s">
         <v>163</v>
       </c>
+      <c r="C32" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>165</v>
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7" t="s">
         <v>168</v>
       </c>
+      <c r="C34" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>170</v>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>172</v>
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>174</v>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>176</v>
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>178</v>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D40" s="6" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7" t="s">
         <v>181</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="186">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -45,6 +45,9 @@
     <t xml:space="preserve">Tipo</t>
   </si>
   <si>
+    <t xml:space="preserve">weight</t>
+  </si>
+  <si>
     <t xml:space="preserve">IIP2023</t>
   </si>
   <si>
@@ -60,7 +63,7 @@
     <t xml:space="preserve">Pregunta 1. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿existen o existieron en su entidad acuerdos y/o actos administrativos relacionados con el concepto de innovación pública?</t>
   </si>
   <si>
-    <t xml:space="preserve">valor</t>
+    <t xml:space="preserve">unica</t>
   </si>
   <si>
     <t xml:space="preserve">Indicador 2. Planeación Estratégica: Existencia dentro de la planeación estratégica de la institución de una relación con el concepto de innovación pública.</t>
@@ -77,6 +80,9 @@
   <si>
     <t xml:space="preserve">Pregunta 3. ¿Cuál fue el valor del presupuesto general de funcionamiento de su entidad ejecutado entre el 01 de enero de 2021 y el 31 de diciembre de 2022?
 Discrimine por año.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
   </si>
   <si>
     <t xml:space="preserve">Pregunta 4. ¿Cuál fue el valor del presupuesto de funcionamiento ejecutado en temas de innovación pública entre el 01 de enero de 2021 y el 31 de diciembre de 2022?
@@ -847,10 +853,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -880,785 +886,896 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>3.7</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>20.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2.3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="0" t="n">
         <v>6</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1710,47 +1827,47 @@
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="7"/>
       <c r="B4" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1758,23 +1875,23 @@
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1782,25 +1899,25 @@
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
       <c r="B8" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1808,10 +1925,10 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1819,23 +1936,23 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1843,10 +1960,10 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1854,81 +1971,81 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1936,51 +2053,51 @@
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,251 +2105,251 @@
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -609,8 +609,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -693,7 +694,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -724,6 +725,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -855,8 +860,8 @@
   </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E40" activeCellId="0" sqref="E40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I5" activeCellId="0" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -886,7 +891,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -909,7 +914,7 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -932,7 +937,7 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -955,7 +960,7 @@
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -978,7 +983,7 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1001,7 +1006,7 @@
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="G6" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,7 +1029,7 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="G7" s="8" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -1035,7 +1040,7 @@
       <c r="B8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1047,7 +1052,7 @@
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="0" t="n">
+      <c r="G8" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,7 +1063,7 @@
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1070,7 +1075,7 @@
       <c r="F9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="G9" s="8" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1081,7 +1086,7 @@
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1093,6 +1098,9 @@
       <c r="F10" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G10" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
@@ -1101,7 +1109,7 @@
       <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1113,7 +1121,7 @@
       <c r="F11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="G11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1124,7 +1132,7 @@
       <c r="B12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1136,7 +1144,7 @@
       <c r="F12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12" s="8" t="n">
         <v>4.7</v>
       </c>
     </row>
@@ -1147,7 +1155,7 @@
       <c r="B13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1159,6 +1167,9 @@
       <c r="F13" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="G13" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
@@ -1179,7 +1190,7 @@
       <c r="F14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14" s="8" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -1190,7 +1201,7 @@
       <c r="B15" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1202,7 +1213,7 @@
       <c r="F15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="0" t="n">
+      <c r="G15" s="8" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -1213,7 +1224,7 @@
       <c r="B16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1225,7 +1236,7 @@
       <c r="F16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1236,7 +1247,7 @@
       <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1248,7 +1259,7 @@
       <c r="F17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17" s="8" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -1259,7 +1270,7 @@
       <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1271,7 +1282,7 @@
       <c r="F18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18" s="8" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -1282,7 +1293,7 @@
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -1294,7 +1305,7 @@
       <c r="F19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="G19" s="8" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -1305,7 +1316,7 @@
       <c r="B20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -1317,7 +1328,7 @@
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1328,7 +1339,7 @@
       <c r="B21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -1340,7 +1351,7 @@
       <c r="F21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1351,7 +1362,7 @@
       <c r="B22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D22" s="7" t="s">
@@ -1363,7 +1374,7 @@
       <c r="F22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1374,7 +1385,7 @@
       <c r="B23" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>46</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -1386,7 +1397,7 @@
       <c r="F23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1409,7 +1420,7 @@
       <c r="F24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="8" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1432,7 +1443,7 @@
       <c r="F25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="G25" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1455,7 +1466,7 @@
       <c r="F26" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26" s="8" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -1478,7 +1489,7 @@
       <c r="F27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G27" s="0" t="n">
+      <c r="G27" s="8" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -1501,7 +1512,7 @@
       <c r="F28" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="G28" s="8" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -1524,7 +1535,7 @@
       <c r="F29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="8" t="n">
         <v>20.5</v>
       </c>
     </row>
@@ -1547,7 +1558,7 @@
       <c r="F30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="G30" s="8" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -1570,7 +1581,7 @@
       <c r="F31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="8" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -1593,6 +1604,9 @@
       <c r="F32" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="G32" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
@@ -1613,7 +1627,7 @@
       <c r="F33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1636,7 +1650,7 @@
       <c r="F34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G34" s="0" t="n">
+      <c r="G34" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1659,7 +1673,7 @@
       <c r="F35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1682,7 +1696,7 @@
       <c r="F36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="0" t="n">
+      <c r="G36" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1705,7 +1719,7 @@
       <c r="F37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G37" s="0" t="n">
+      <c r="G37" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1728,7 +1742,7 @@
       <c r="F38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G38" s="0" t="n">
+      <c r="G38" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1751,7 +1765,7 @@
       <c r="F39" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="0" t="n">
+      <c r="G39" s="8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,7 +1788,7 @@
       <c r="F40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G40" s="0" t="n">
+      <c r="G40" s="8" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1907,7 +1921,7 @@
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1996,7 +2010,7 @@
       <c r="A15" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2061,7 +2075,7 @@
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="7" t="s">

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -882,16 +882,18 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="2" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="39.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="10.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="10.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="39.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="51.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="9.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="51.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="41.45"/>
   </cols>

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="282">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pregunta 1.1. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA</t>
   </si>
   <si>
     <t xml:space="preserve">Indique número o código del acuerdo o acto administrativo.</t>
@@ -980,7 +983,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,12 +1048,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1186,8 +1185,8 @@
   </sheetPr>
   <dimension ref="A1:M158"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H145" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J148" activeCellId="0" sqref="J148"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1278,8 +1277,12 @@
       <c r="K2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
+      <c r="L2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
@@ -1313,10 +1316,14 @@
         <v>0</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
+        <v>21</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
@@ -1350,10 +1357,14 @@
         <v>0</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+        <v>22</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
@@ -1387,10 +1398,14 @@
         <v>0</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
@@ -1424,10 +1439,14 @@
         <v>0</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
@@ -1446,13 +1465,13 @@
         <v>4</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>18</v>
@@ -1461,10 +1480,14 @@
         <v>4</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
+        <v>27</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
@@ -1483,13 +1506,13 @@
         <v>4</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G8" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I8" s="13" t="s">
         <v>18</v>
@@ -1498,10 +1521,14 @@
         <v>4</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
+        <v>28</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
@@ -1520,13 +1547,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>18</v>
@@ -1535,10 +1562,14 @@
         <v>4</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
@@ -1557,13 +1588,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G10" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I10" s="13" t="s">
         <v>18</v>
@@ -1572,10 +1603,14 @@
         <v>4</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
+        <v>30</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
@@ -1594,13 +1629,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G11" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" s="13" t="s">
         <v>18</v>
@@ -1609,10 +1644,14 @@
         <v>4</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
@@ -1625,31 +1664,35 @@
         <v>25</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="12" t="n">
         <v>7.7</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J12" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
@@ -1662,31 +1705,35 @@
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E13" s="12" t="n">
         <v>7.7</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J13" s="14" t="n">
         <v>4</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
@@ -1699,31 +1746,35 @@
         <v>25</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E14" s="12" t="n">
         <v>7.7</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="11" t="n">
         <v>3.7</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J14" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
@@ -1736,31 +1787,35 @@
         <v>25</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E15" s="12" t="n">
         <v>7.7</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="11" t="n">
         <v>3.7</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J15" s="14" t="n">
         <v>3.7</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="s">
@@ -1773,31 +1828,35 @@
         <v>25</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E16" s="12" t="n">
         <v>8.7</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J16" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="s">
@@ -1810,31 +1869,35 @@
         <v>25</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="12" t="n">
         <v>8.7</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G17" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J17" s="14" t="n">
         <v>4</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
@@ -1847,31 +1910,35 @@
         <v>25</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E18" s="12" t="n">
         <v>8.7</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="11" t="n">
         <v>4</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J18" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
@@ -1884,31 +1951,35 @@
         <v>25</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E19" s="12" t="n">
         <v>8.7</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G19" s="11" t="n">
         <v>4.7</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J19" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K19" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
@@ -1921,31 +1992,35 @@
         <v>25</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E20" s="12" t="n">
         <v>8.7</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G20" s="11" t="n">
         <v>4.7</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J20" s="14" t="n">
         <v>4.7</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
@@ -1958,31 +2033,35 @@
         <v>25</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E21" s="12" t="n">
         <v>8.7</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G21" s="11" t="n">
         <v>4.7</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J21" s="14" t="n">
         <v>0</v>
       </c>
       <c r="K21" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="s">
@@ -1995,19 +2074,19 @@
         <v>25</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E22" s="12" t="n">
         <v>4.6</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" s="11" t="n">
         <v>4.6</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" s="13" t="s">
         <v>18</v>
@@ -2016,10 +2095,14 @@
         <v>4.6</v>
       </c>
       <c r="K22" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
+        <v>52</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
@@ -2032,19 +2115,19 @@
         <v>25</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12" t="n">
         <v>4.6</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" s="11" t="n">
         <v>4.6</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>18</v>
@@ -2053,10 +2136,14 @@
         <v>4.6</v>
       </c>
       <c r="K23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
+        <v>53</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
@@ -2069,19 +2156,19 @@
         <v>25</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E24" s="12" t="n">
         <v>4.6</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" s="11" t="n">
         <v>4.6</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>18</v>
@@ -2090,10 +2177,14 @@
         <v>4.6</v>
       </c>
       <c r="K24" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M24" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
@@ -2106,19 +2197,19 @@
         <v>25</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E25" s="12" t="n">
         <v>4.6</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" s="11" t="n">
         <v>4.6</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" s="13" t="s">
         <v>18</v>
@@ -2127,10 +2218,14 @@
         <v>4.6</v>
       </c>
       <c r="K25" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
@@ -2143,19 +2238,19 @@
         <v>25</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E26" s="12" t="n">
         <v>4.6</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" s="11" t="n">
         <v>4.6</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>18</v>
@@ -2164,35 +2259,39 @@
         <v>4.6</v>
       </c>
       <c r="K26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M26" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C27" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E27" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>18</v>
@@ -2201,35 +2300,39 @@
         <v>2.8</v>
       </c>
       <c r="K27" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
+        <v>60</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M27" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E28" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G28" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I28" s="13" t="s">
         <v>18</v>
@@ -2238,35 +2341,39 @@
         <v>2.8</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M28" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I29" s="13" t="s">
         <v>18</v>
@@ -2275,35 +2382,39 @@
         <v>2.8</v>
       </c>
       <c r="K29" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M29" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C30" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G30" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I30" s="13" t="s">
         <v>18</v>
@@ -2312,35 +2423,39 @@
         <v>2.8</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M30" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C31" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G31" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I31" s="13" t="s">
         <v>18</v>
@@ -2349,35 +2464,39 @@
         <v>2.8</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L31" s="16"/>
-      <c r="M31" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M31" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E32" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G32" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I32" s="13" t="s">
         <v>18</v>
@@ -2386,35 +2505,39 @@
         <v>2.8</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C33" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E33" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G33" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I33" s="13" t="s">
         <v>18</v>
@@ -2423,35 +2546,39 @@
         <v>1</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="L33" s="16"/>
-      <c r="M33" s="16"/>
+        <v>68</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C34" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E34" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G34" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I34" s="13" t="s">
         <v>18</v>
@@ -2460,35 +2587,39 @@
         <v>1</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="L34" s="16"/>
-      <c r="M34" s="16"/>
+        <v>69</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M34" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C35" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E35" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G35" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I35" s="13" t="s">
         <v>18</v>
@@ -2497,35 +2628,39 @@
         <v>1</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E36" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G36" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I36" s="13" t="s">
         <v>18</v>
@@ -2534,35 +2669,39 @@
         <v>1</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C37" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E37" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G37" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I37" s="13" t="s">
         <v>18</v>
@@ -2571,35 +2710,39 @@
         <v>1</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M37" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G38" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I38" s="13" t="s">
         <v>18</v>
@@ -2608,35 +2751,39 @@
         <v>1</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C39" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E39" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G39" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I39" s="13" t="s">
         <v>18</v>
@@ -2645,35 +2792,39 @@
         <v>2.8</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
+        <v>72</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E40" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G40" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I40" s="13" t="s">
         <v>18</v>
@@ -2682,35 +2833,39 @@
         <v>2.8</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
+        <v>61</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C41" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G41" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I41" s="13" t="s">
         <v>18</v>
@@ -2719,35 +2874,39 @@
         <v>2.8</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
+        <v>62</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M41" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E42" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G42" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>18</v>
@@ -2756,35 +2915,39 @@
         <v>2.8</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M42" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E43" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G43" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I43" s="13" t="s">
         <v>18</v>
@@ -2793,35 +2956,39 @@
         <v>2.8</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
+        <v>64</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C44" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E44" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G44" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I44" s="13" t="s">
         <v>18</v>
@@ -2830,183 +2997,203 @@
         <v>2.8</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
+        <v>65</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C45" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E45" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G45" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J45" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C46" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E46" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G46" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J46" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C47" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G47" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J47" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C48" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E48" s="12" t="n">
         <v>9</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G48" s="11" t="n">
         <v>2.4</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J48" s="14" t="n">
         <v>1.2</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C49" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E49" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G49" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>18</v>
@@ -3015,35 +3202,39 @@
         <v>3</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
+        <v>83</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C50" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E50" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G50" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>18</v>
@@ -3052,35 +3243,39 @@
         <v>3</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C51" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G51" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>18</v>
@@ -3089,35 +3284,39 @@
         <v>3</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M51" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E52" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G52" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I52" s="13" t="s">
         <v>18</v>
@@ -3126,35 +3325,39 @@
         <v>3</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E53" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G53" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>18</v>
@@ -3163,35 +3366,39 @@
         <v>3</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E54" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G54" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I54" s="13" t="s">
         <v>18</v>
@@ -3200,35 +3407,39 @@
         <v>3</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C55" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E55" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G55" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I55" s="13" t="s">
         <v>18</v>
@@ -3237,35 +3448,39 @@
         <v>3</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="16"/>
+        <v>89</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C56" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E56" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G56" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I56" s="13" t="s">
         <v>18</v>
@@ -3274,35 +3489,39 @@
         <v>3</v>
       </c>
       <c r="K56" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L56" s="16"/>
-      <c r="M56" s="16"/>
+        <v>84</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M56" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E57" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G57" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I57" s="13" t="s">
         <v>18</v>
@@ -3311,35 +3530,39 @@
         <v>3</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="L57" s="16"/>
-      <c r="M57" s="16"/>
+        <v>85</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E58" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G58" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I58" s="13" t="s">
         <v>18</v>
@@ -3348,35 +3571,39 @@
         <v>3</v>
       </c>
       <c r="K58" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L58" s="16"/>
-      <c r="M58" s="16"/>
+        <v>63</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E59" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G59" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I59" s="13" t="s">
         <v>18</v>
@@ -3385,35 +3612,39 @@
         <v>3</v>
       </c>
       <c r="K59" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="L59" s="16"/>
-      <c r="M59" s="16"/>
+        <v>86</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M59" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E60" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G60" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I60" s="13" t="s">
         <v>18</v>
@@ -3422,183 +3653,203 @@
         <v>3</v>
       </c>
       <c r="K60" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L60" s="16"/>
-      <c r="M60" s="16"/>
+        <v>24</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M60" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C61" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E61" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G61" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J61" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K61" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="L61" s="16"/>
-      <c r="M61" s="16"/>
+        <v>75</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M61" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C62" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E62" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G62" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J62" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K62" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="L62" s="16"/>
-      <c r="M62" s="16"/>
+        <v>76</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E63" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G63" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J63" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K63" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
+        <v>78</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C64" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" s="12" t="n">
         <v>8</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G64" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J64" s="14" t="n">
         <v>1</v>
       </c>
       <c r="K64" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
+        <v>79</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M64" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C65" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E65" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G65" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I65" s="13" t="s">
         <v>18</v>
@@ -3606,36 +3857,40 @@
       <c r="J65" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K65" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="L65" s="16"/>
-      <c r="M65" s="16"/>
+      <c r="K65" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M65" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C66" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E66" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G66" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I66" s="13" t="s">
         <v>18</v>
@@ -3643,36 +3898,40 @@
       <c r="J66" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K66" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="L66" s="16"/>
-      <c r="M66" s="16"/>
+      <c r="K66" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M66" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E67" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G67" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I67" s="13" t="s">
         <v>18</v>
@@ -3680,36 +3939,40 @@
       <c r="J67" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K67" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="L67" s="16"/>
-      <c r="M67" s="16"/>
+      <c r="K67" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M67" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C68" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E68" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G68" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I68" s="13" t="s">
         <v>18</v>
@@ -3717,36 +3980,40 @@
       <c r="J68" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K68" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
+      <c r="K68" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M68" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C69" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E69" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G69" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I69" s="13" t="s">
         <v>18</v>
@@ -3754,36 +4021,40 @@
       <c r="J69" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K69" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
+      <c r="K69" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M69" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C70" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E70" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G70" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I70" s="13" t="s">
         <v>18</v>
@@ -3791,36 +4062,40 @@
       <c r="J70" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K70" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+      <c r="K70" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M70" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C71" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E71" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G71" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I71" s="13" t="s">
         <v>18</v>
@@ -3828,36 +4103,40 @@
       <c r="J71" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K71" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="L71" s="16"/>
-      <c r="M71" s="16"/>
+      <c r="K71" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M71" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C72" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E72" s="12" t="n">
         <v>7</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G72" s="11" t="n">
         <v>7</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I72" s="13" t="s">
         <v>18</v>
@@ -3865,36 +4144,40 @@
       <c r="J72" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="K72" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L72" s="16"/>
-      <c r="M72" s="16"/>
+      <c r="K72" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M72" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C73" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E73" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G73" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I73" s="13" t="s">
         <v>18</v>
@@ -3902,36 +4185,40 @@
       <c r="J73" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K73" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="L73" s="16"/>
-      <c r="M73" s="16"/>
+      <c r="K73" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M73" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C74" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G74" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I74" s="13" t="s">
         <v>18</v>
@@ -3939,36 +4226,40 @@
       <c r="J74" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K74" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L74" s="16"/>
-      <c r="M74" s="16"/>
+      <c r="K74" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M74" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C75" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E75" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G75" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I75" s="13" t="s">
         <v>18</v>
@@ -3976,36 +4267,40 @@
       <c r="J75" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K75" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L75" s="16"/>
-      <c r="M75" s="16"/>
+      <c r="K75" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M75" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C76" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E76" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G76" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I76" s="13" t="s">
         <v>18</v>
@@ -4013,36 +4308,40 @@
       <c r="J76" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K76" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L76" s="16"/>
-      <c r="M76" s="16"/>
+      <c r="K76" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M76" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C77" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E77" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G77" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I77" s="13" t="s">
         <v>18</v>
@@ -4050,36 +4349,40 @@
       <c r="J77" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K77" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L77" s="16"/>
-      <c r="M77" s="16"/>
+      <c r="K77" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M77" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C78" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E78" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G78" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I78" s="13" t="s">
         <v>18</v>
@@ -4087,36 +4390,40 @@
       <c r="J78" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K78" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L78" s="16"/>
-      <c r="M78" s="16"/>
+      <c r="K78" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M78" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C79" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E79" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G79" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I79" s="13" t="s">
         <v>18</v>
@@ -4124,36 +4431,40 @@
       <c r="J79" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K79" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L79" s="16"/>
-      <c r="M79" s="16"/>
+      <c r="K79" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M79" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C80" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E80" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G80" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I80" s="13" t="s">
         <v>18</v>
@@ -4161,36 +4472,40 @@
       <c r="J80" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K80" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
+      <c r="K80" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M80" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C81" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E81" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F81" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G81" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I81" s="13" t="s">
         <v>18</v>
@@ -4198,36 +4513,40 @@
       <c r="J81" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K81" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
+      <c r="K81" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M81" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C82" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E82" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F82" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G82" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I82" s="13" t="s">
         <v>18</v>
@@ -4235,36 +4554,40 @@
       <c r="J82" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K82" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L82" s="16"/>
-      <c r="M82" s="16"/>
+      <c r="K82" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M82" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C83" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E83" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G83" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I83" s="13" t="s">
         <v>18</v>
@@ -4272,36 +4595,40 @@
       <c r="J83" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K83" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L83" s="16"/>
-      <c r="M83" s="16"/>
+      <c r="K83" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M83" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C84" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E84" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G84" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I84" s="13" t="s">
         <v>18</v>
@@ -4309,36 +4636,40 @@
       <c r="J84" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K84" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L84" s="16"/>
-      <c r="M84" s="16"/>
+      <c r="K84" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M84" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C85" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E85" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F85" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G85" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I85" s="13" t="s">
         <v>18</v>
@@ -4346,36 +4677,40 @@
       <c r="J85" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K85" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="L85" s="16"/>
-      <c r="M85" s="16"/>
+      <c r="K85" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="L85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M85" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C86" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E86" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F86" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G86" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H86" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I86" s="13" t="s">
         <v>18</v>
@@ -4383,36 +4718,40 @@
       <c r="J86" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K86" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="L86" s="16"/>
-      <c r="M86" s="16"/>
+      <c r="K86" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="L86" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M86" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C87" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E87" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G87" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I87" s="13" t="s">
         <v>18</v>
@@ -4420,36 +4759,40 @@
       <c r="J87" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K87" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L87" s="16"/>
-      <c r="M87" s="16"/>
+      <c r="K87" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L87" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M87" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C88" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E88" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G88" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H88" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I88" s="13" t="s">
         <v>18</v>
@@ -4457,36 +4800,40 @@
       <c r="J88" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K88" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
+      <c r="K88" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L88" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M88" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C89" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E89" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G89" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I89" s="13" t="s">
         <v>18</v>
@@ -4494,36 +4841,40 @@
       <c r="J89" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K89" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L89" s="16"/>
-      <c r="M89" s="16"/>
+      <c r="K89" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M89" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C90" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E90" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G90" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I90" s="13" t="s">
         <v>18</v>
@@ -4531,36 +4882,40 @@
       <c r="J90" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K90" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L90" s="16"/>
-      <c r="M90" s="16"/>
+      <c r="K90" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L90" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M90" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C91" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E91" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G91" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I91" s="13" t="s">
         <v>18</v>
@@ -4568,36 +4923,40 @@
       <c r="J91" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K91" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L91" s="16"/>
-      <c r="M91" s="16"/>
+      <c r="K91" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M91" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C92" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E92" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G92" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I92" s="13" t="s">
         <v>18</v>
@@ -4605,36 +4964,40 @@
       <c r="J92" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K92" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="L92" s="16"/>
-      <c r="M92" s="16"/>
+      <c r="K92" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L92" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M92" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C93" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E93" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G93" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I93" s="13" t="s">
         <v>18</v>
@@ -4642,36 +5005,40 @@
       <c r="J93" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K93" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
+      <c r="K93" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M93" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C94" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D94" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E94" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G94" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H94" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I94" s="13" t="s">
         <v>18</v>
@@ -4679,36 +5046,40 @@
       <c r="J94" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K94" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L94" s="16"/>
-      <c r="M94" s="16"/>
+      <c r="K94" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L94" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M94" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C95" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E95" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G95" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H95" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I95" s="13" t="s">
         <v>18</v>
@@ -4716,36 +5087,40 @@
       <c r="J95" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K95" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L95" s="16"/>
-      <c r="M95" s="16"/>
+      <c r="K95" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L95" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M95" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C96" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E96" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G96" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I96" s="13" t="s">
         <v>18</v>
@@ -4753,36 +5128,40 @@
       <c r="J96" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K96" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L96" s="16"/>
-      <c r="M96" s="16"/>
+      <c r="K96" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M96" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C97" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E97" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G97" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H97" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I97" s="13" t="s">
         <v>18</v>
@@ -4790,36 +5169,40 @@
       <c r="J97" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K97" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
+      <c r="K97" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M97" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C98" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E98" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G98" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H98" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I98" s="13" t="s">
         <v>18</v>
@@ -4827,36 +5210,40 @@
       <c r="J98" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K98" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
+      <c r="K98" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="L98" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M98" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C99" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E99" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G99" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I99" s="13" t="s">
         <v>18</v>
@@ -4864,36 +5251,40 @@
       <c r="J99" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K99" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="L99" s="16"/>
-      <c r="M99" s="16"/>
+      <c r="K99" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L99" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M99" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C100" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E100" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G100" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H100" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I100" s="13" t="s">
         <v>18</v>
@@ -4901,36 +5292,40 @@
       <c r="J100" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K100" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
+      <c r="K100" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M100" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C101" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E101" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G101" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H101" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I101" s="13" t="s">
         <v>18</v>
@@ -4938,36 +5333,40 @@
       <c r="J101" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K101" s="17" t="s">
-        <v>109</v>
-      </c>
-      <c r="L101" s="16"/>
-      <c r="M101" s="16"/>
+      <c r="K101" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M101" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C102" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E102" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G102" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H102" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I102" s="13" t="s">
         <v>18</v>
@@ -4975,36 +5374,40 @@
       <c r="J102" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K102" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="L102" s="16"/>
-      <c r="M102" s="16"/>
+      <c r="K102" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="L102" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M102" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C103" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E103" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G103" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H103" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I103" s="13" t="s">
         <v>18</v>
@@ -5012,36 +5415,40 @@
       <c r="J103" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K103" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="L103" s="16"/>
-      <c r="M103" s="16"/>
+      <c r="K103" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="L103" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M103" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C104" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E104" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G104" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H104" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I104" s="13" t="s">
         <v>18</v>
@@ -5049,36 +5456,40 @@
       <c r="J104" s="14" t="n">
         <v>2.8</v>
       </c>
-      <c r="K104" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="L104" s="16"/>
-      <c r="M104" s="16"/>
+      <c r="K104" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="L104" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M104" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C105" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E105" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G105" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I105" s="13" t="s">
         <v>18</v>
@@ -5086,36 +5497,40 @@
       <c r="J105" s="14" t="n">
         <v>2.8</v>
       </c>
-      <c r="K105" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="L105" s="16"/>
-      <c r="M105" s="16"/>
+      <c r="K105" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="L105" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M105" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C106" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E106" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G106" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H106" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I106" s="13" t="s">
         <v>18</v>
@@ -5123,36 +5538,40 @@
       <c r="J106" s="14" t="n">
         <v>2.8</v>
       </c>
-      <c r="K106" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="L106" s="16"/>
-      <c r="M106" s="16"/>
+      <c r="K106" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L106" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M106" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C107" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E107" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G107" s="11" t="n">
         <v>2.8</v>
       </c>
       <c r="H107" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I107" s="13" t="s">
         <v>18</v>
@@ -5160,36 +5579,40 @@
       <c r="J107" s="14" t="n">
         <v>2.8</v>
       </c>
-      <c r="K107" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="L107" s="16"/>
-      <c r="M107" s="16"/>
+      <c r="K107" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="L107" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M107" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C108" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E108" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G108" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H108" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I108" s="13" t="s">
         <v>18</v>
@@ -5197,36 +5620,40 @@
       <c r="J108" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K108" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="L108" s="16"/>
-      <c r="M108" s="16"/>
+      <c r="K108" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="L108" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M108" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B109" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C109" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E109" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G109" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H109" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I109" s="13" t="s">
         <v>18</v>
@@ -5234,36 +5661,40 @@
       <c r="J109" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K109" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="L109" s="16"/>
-      <c r="M109" s="16"/>
+      <c r="K109" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L109" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M109" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C110" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E110" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G110" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H110" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I110" s="13" t="s">
         <v>18</v>
@@ -5271,36 +5702,40 @@
       <c r="J110" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K110" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="L110" s="16"/>
-      <c r="M110" s="16"/>
+      <c r="K110" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L110" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M110" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C111" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E111" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G111" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H111" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I111" s="13" t="s">
         <v>18</v>
@@ -5308,36 +5743,40 @@
       <c r="J111" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K111" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="L111" s="16"/>
-      <c r="M111" s="16"/>
+      <c r="K111" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L111" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M111" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C112" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E112" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G112" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H112" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I112" s="13" t="s">
         <v>18</v>
@@ -5345,36 +5784,40 @@
       <c r="J112" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K112" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="L112" s="16"/>
-      <c r="M112" s="16"/>
+      <c r="K112" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="L112" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M112" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C113" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E113" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G113" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H113" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I113" s="13" t="s">
         <v>18</v>
@@ -5382,36 +5825,40 @@
       <c r="J113" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K113" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="L113" s="16"/>
-      <c r="M113" s="16"/>
+      <c r="K113" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L113" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M113" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C114" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E114" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G114" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H114" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I114" s="13" t="s">
         <v>18</v>
@@ -5419,36 +5866,40 @@
       <c r="J114" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K114" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
+      <c r="K114" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="L114" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M114" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C115" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E115" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G115" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H115" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I115" s="13" t="s">
         <v>18</v>
@@ -5456,36 +5907,40 @@
       <c r="J115" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K115" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
+      <c r="K115" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L115" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M115" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C116" s="11" t="n">
         <v>35</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E116" s="12" t="n">
         <v>5</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G116" s="11" t="n">
         <v>1.1</v>
       </c>
       <c r="H116" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I116" s="13" t="s">
         <v>18</v>
@@ -5493,36 +5948,40 @@
       <c r="J116" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K116" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="L116" s="16"/>
-      <c r="M116" s="16"/>
+      <c r="K116" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L116" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M116" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C117" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E117" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G117" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H117" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I117" s="13" t="s">
         <v>18</v>
@@ -5530,36 +5989,40 @@
       <c r="J117" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K117" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="L117" s="16"/>
-      <c r="M117" s="16"/>
+      <c r="K117" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L117" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M117" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C118" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E118" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G118" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H118" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I118" s="13" t="s">
         <v>18</v>
@@ -5567,36 +6030,40 @@
       <c r="J118" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K118" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="L118" s="16"/>
-      <c r="M118" s="16"/>
+      <c r="K118" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L118" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C119" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E119" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G119" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H119" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I119" s="13" t="s">
         <v>18</v>
@@ -5604,36 +6071,40 @@
       <c r="J119" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K119" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="L119" s="16"/>
-      <c r="M119" s="16"/>
+      <c r="K119" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L119" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M119" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C120" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E120" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G120" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H120" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I120" s="13" t="s">
         <v>18</v>
@@ -5641,36 +6112,40 @@
       <c r="J120" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K120" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="L120" s="16"/>
-      <c r="M120" s="16"/>
+      <c r="K120" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="L120" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M120" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C121" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E121" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G121" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H121" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I121" s="13" t="s">
         <v>18</v>
@@ -5678,36 +6153,40 @@
       <c r="J121" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K121" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="L121" s="16"/>
-      <c r="M121" s="16"/>
+      <c r="K121" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L121" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M121" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C122" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E122" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G122" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H122" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I122" s="13" t="s">
         <v>18</v>
@@ -5715,36 +6194,40 @@
       <c r="J122" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K122" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="L122" s="16"/>
-      <c r="M122" s="16"/>
+      <c r="K122" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="L122" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M122" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C123" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E123" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G123" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H123" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I123" s="13" t="s">
         <v>18</v>
@@ -5752,36 +6235,40 @@
       <c r="J123" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K123" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="L123" s="16"/>
-      <c r="M123" s="16"/>
+      <c r="K123" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="L123" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M123" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C124" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E124" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F124" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G124" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H124" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I124" s="13" t="s">
         <v>18</v>
@@ -5789,36 +6276,40 @@
       <c r="J124" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K124" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="L124" s="16"/>
-      <c r="M124" s="16"/>
+      <c r="K124" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L124" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C125" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E125" s="12" t="n">
         <v>20.5</v>
       </c>
       <c r="F125" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G125" s="11" t="n">
         <v>20.5</v>
       </c>
       <c r="H125" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I125" s="13" t="s">
         <v>18</v>
@@ -5826,36 +6317,40 @@
       <c r="J125" s="14" t="n">
         <v>20.5</v>
       </c>
-      <c r="K125" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="L125" s="16"/>
-      <c r="M125" s="16"/>
+      <c r="K125" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="L125" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M125" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C126" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E126" s="12" t="n">
         <v>4.5</v>
       </c>
       <c r="F126" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G126" s="11" t="n">
         <v>2.2</v>
       </c>
       <c r="H126" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I126" s="13" t="s">
         <v>18</v>
@@ -5863,36 +6358,40 @@
       <c r="J126" s="14" t="n">
         <v>2.2</v>
       </c>
-      <c r="K126" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="L126" s="16"/>
-      <c r="M126" s="16"/>
+      <c r="K126" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L126" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M126" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C127" s="11" t="n">
         <v>25</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E127" s="12" t="n">
         <v>4.5</v>
       </c>
       <c r="F127" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G127" s="11" t="n">
         <v>2.3</v>
       </c>
       <c r="H127" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I127" s="13" t="s">
         <v>18</v>
@@ -5900,36 +6399,40 @@
       <c r="J127" s="14" t="n">
         <v>2.3</v>
       </c>
-      <c r="K127" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="L127" s="16"/>
-      <c r="M127" s="16"/>
+      <c r="K127" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="L127" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M127" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C128" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E128" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F128" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G128" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H128" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I128" s="13" t="s">
         <v>18</v>
@@ -5937,36 +6440,40 @@
       <c r="J128" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K128" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="L128" s="16"/>
-      <c r="M128" s="16"/>
+      <c r="K128" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L128" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M128" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C129" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E129" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G129" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I129" s="13" t="s">
         <v>18</v>
@@ -5974,36 +6481,40 @@
       <c r="J129" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K129" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L129" s="16"/>
-      <c r="M129" s="16"/>
+      <c r="K129" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="L129" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M129" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C130" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E130" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F130" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G130" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I130" s="13" t="s">
         <v>18</v>
@@ -6011,36 +6522,40 @@
       <c r="J130" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K130" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="L130" s="16"/>
-      <c r="M130" s="16"/>
+      <c r="K130" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L130" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M130" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C131" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E131" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G131" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I131" s="13" t="s">
         <v>18</v>
@@ -6048,36 +6563,40 @@
       <c r="J131" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K131" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
+      <c r="K131" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L131" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M131" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C132" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E132" s="12" t="n">
         <v>0</v>
       </c>
       <c r="F132" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G132" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I132" s="13" t="s">
         <v>18</v>
@@ -6085,36 +6604,40 @@
       <c r="J132" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K132" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
+      <c r="K132" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L132" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M132" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C133" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E133" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F133" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G133" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I133" s="13" t="s">
         <v>18</v>
@@ -6122,36 +6645,40 @@
       <c r="J133" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K133" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="L133" s="16"/>
-      <c r="M133" s="16"/>
+      <c r="K133" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="L133" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M133" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C134" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E134" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F134" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G134" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I134" s="13" t="s">
         <v>18</v>
@@ -6159,36 +6686,40 @@
       <c r="J134" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K134" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="L134" s="16"/>
-      <c r="M134" s="16"/>
+      <c r="K134" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="L134" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M134" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B135" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C135" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E135" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F135" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G135" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I135" s="13" t="s">
         <v>18</v>
@@ -6196,36 +6727,40 @@
       <c r="J135" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K135" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="L135" s="16"/>
-      <c r="M135" s="16"/>
+      <c r="K135" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L135" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M135" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B136" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C136" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E136" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F136" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G136" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I136" s="13" t="s">
         <v>18</v>
@@ -6233,36 +6768,40 @@
       <c r="J136" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K136" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L136" s="16"/>
-      <c r="M136" s="16"/>
+      <c r="K136" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M136" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B137" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C137" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E137" s="12" t="n">
         <v>3</v>
       </c>
       <c r="F137" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G137" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="I137" s="13" t="s">
         <v>18</v>
@@ -6270,36 +6809,40 @@
       <c r="J137" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="K137" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L137" s="16"/>
-      <c r="M137" s="16"/>
+      <c r="K137" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L137" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M137" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C138" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E138" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F138" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G138" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I138" s="13" t="s">
         <v>18</v>
@@ -6307,36 +6850,40 @@
       <c r="J138" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K138" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L138" s="16"/>
-      <c r="M138" s="16"/>
+      <c r="K138" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="L138" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C139" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E139" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F139" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G139" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I139" s="13" t="s">
         <v>18</v>
@@ -6344,36 +6891,40 @@
       <c r="J139" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K139" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="L139" s="16"/>
-      <c r="M139" s="16"/>
+      <c r="K139" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="L139" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B140" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C140" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E140" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F140" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G140" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I140" s="13" t="s">
         <v>18</v>
@@ -6381,36 +6932,40 @@
       <c r="J140" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K140" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L140" s="16"/>
-      <c r="M140" s="16"/>
+      <c r="K140" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L140" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C141" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E141" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F141" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G141" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I141" s="13" t="s">
         <v>18</v>
@@ -6418,36 +6973,40 @@
       <c r="J141" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K141" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="L141" s="16"/>
-      <c r="M141" s="16"/>
+      <c r="K141" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="L141" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M141" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C142" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D142" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E142" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F142" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G142" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I142" s="13" t="s">
         <v>18</v>
@@ -6455,36 +7014,40 @@
       <c r="J142" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K142" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L142" s="16"/>
-      <c r="M142" s="16"/>
+      <c r="K142" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L142" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M142" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C143" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D143" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E143" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F143" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G143" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I143" s="13" t="s">
         <v>18</v>
@@ -6492,36 +7055,40 @@
       <c r="J143" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K143" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L143" s="16"/>
-      <c r="M143" s="16"/>
+      <c r="K143" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L143" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M143" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B144" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C144" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D144" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E144" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F144" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G144" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I144" s="13" t="s">
         <v>18</v>
@@ -6529,36 +7096,40 @@
       <c r="J144" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K144" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="L144" s="16"/>
-      <c r="M144" s="16"/>
+      <c r="K144" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="L144" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M144" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C145" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E145" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F145" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G145" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I145" s="13" t="s">
         <v>18</v>
@@ -6566,36 +7137,40 @@
       <c r="J145" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K145" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L145" s="16"/>
-      <c r="M145" s="16"/>
+      <c r="K145" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L145" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M145" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C146" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E146" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F146" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G146" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I146" s="13" t="s">
         <v>18</v>
@@ -6603,36 +7178,40 @@
       <c r="J146" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K146" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L146" s="16"/>
-      <c r="M146" s="16"/>
+      <c r="K146" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L146" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M146" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C147" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E147" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F147" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G147" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I147" s="13" t="s">
         <v>18</v>
@@ -6640,36 +7219,40 @@
       <c r="J147" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K147" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="L147" s="16"/>
-      <c r="M147" s="16"/>
+      <c r="K147" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="L147" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M147" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C148" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E148" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F148" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G148" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I148" s="13" t="s">
         <v>18</v>
@@ -6677,36 +7260,40 @@
       <c r="J148" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K148" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L148" s="16"/>
-      <c r="M148" s="16"/>
+      <c r="K148" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L148" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M148" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C149" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E149" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F149" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G149" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I149" s="13" t="s">
         <v>18</v>
@@ -6714,36 +7301,40 @@
       <c r="J149" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K149" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L149" s="16"/>
-      <c r="M149" s="16"/>
+      <c r="K149" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L149" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M149" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C150" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E150" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F150" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G150" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I150" s="13" t="s">
         <v>18</v>
@@ -6751,36 +7342,40 @@
       <c r="J150" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K150" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="L150" s="16"/>
-      <c r="M150" s="16"/>
+      <c r="K150" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="L150" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M150" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="151" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C151" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E151" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F151" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G151" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I151" s="13" t="s">
         <v>18</v>
@@ -6788,36 +7383,40 @@
       <c r="J151" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K151" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L151" s="16"/>
-      <c r="M151" s="16"/>
+      <c r="K151" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L151" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M151" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="152" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C152" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E152" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F152" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G152" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I152" s="13" t="s">
         <v>18</v>
@@ -6825,36 +7424,40 @@
       <c r="J152" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K152" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L152" s="16"/>
-      <c r="M152" s="16"/>
+      <c r="K152" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L152" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M152" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C153" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E153" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G153" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I153" s="13" t="s">
         <v>18</v>
@@ -6862,36 +7465,40 @@
       <c r="J153" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K153" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="L153" s="16"/>
-      <c r="M153" s="16"/>
+      <c r="K153" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L153" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M153" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C154" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E154" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F154" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G154" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H154" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I154" s="13" t="s">
         <v>18</v>
@@ -6899,36 +7506,40 @@
       <c r="J154" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K154" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="L154" s="16"/>
-      <c r="M154" s="16"/>
+      <c r="K154" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="L154" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M154" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C155" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E155" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F155" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G155" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H155" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I155" s="13" t="s">
         <v>18</v>
@@ -6936,36 +7547,40 @@
       <c r="J155" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K155" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="L155" s="16"/>
-      <c r="M155" s="16"/>
+      <c r="K155" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L155" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M155" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="156" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C156" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E156" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F156" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G156" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H156" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I156" s="13" t="s">
         <v>18</v>
@@ -6973,36 +7588,40 @@
       <c r="J156" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K156" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="L156" s="16"/>
-      <c r="M156" s="16"/>
+      <c r="K156" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="L156" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M156" s="16" t="n">
+        <v>2222</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C157" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E157" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F157" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G157" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I157" s="13" t="s">
         <v>18</v>
@@ -7010,8 +7629,14 @@
       <c r="J157" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K157" s="17" t="s">
-        <v>191</v>
+      <c r="K157" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L157" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M157" s="16" t="n">
+        <v>2222</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7019,25 +7644,25 @@
         <v>13</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C158" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E158" s="12" t="n">
         <v>6</v>
       </c>
       <c r="F158" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G158" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I158" s="13" t="s">
         <v>18</v>
@@ -7045,8 +7670,14 @@
       <c r="J158" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="K158" s="17" t="s">
-        <v>23</v>
+      <c r="K158" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L158" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="M158" s="16" t="n">
+        <v>2222</v>
       </c>
     </row>
   </sheetData>
@@ -7086,541 +7717,541 @@
       <c r="B1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>196</v>
       </c>
+      <c r="D2" s="18" t="s">
+        <v>197</v>
+      </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
         <v>198</v>
       </c>
+      <c r="D3" s="18" t="s">
+        <v>199</v>
+      </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>201</v>
       </c>
+      <c r="D4" s="18" t="s">
+        <v>202</v>
+      </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
-        <v>202</v>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>203</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
         <v>204</v>
       </c>
+      <c r="D6" s="18" t="s">
+        <v>205</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>205</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>206</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>208</v>
       </c>
+      <c r="D8" s="18" t="s">
+        <v>209</v>
+      </c>
       <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19" t="s">
-        <v>209</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19" t="s">
-        <v>210</v>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>211</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="19" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
         <v>212</v>
       </c>
+      <c r="D11" s="18" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
-        <v>213</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>214</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19" t="s">
-        <v>214</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C14" s="19" t="s">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>217</v>
       </c>
+      <c r="D14" s="18" t="s">
+        <v>218</v>
+      </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>218</v>
+      <c r="A15" s="18" t="s">
+        <v>219</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="C15" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="C15" s="18" t="s">
         <v>221</v>
       </c>
+      <c r="D15" s="18" t="s">
+        <v>222</v>
+      </c>
       <c r="E15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19" t="s">
-        <v>222</v>
-      </c>
-      <c r="D16" s="19" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
         <v>223</v>
       </c>
+      <c r="D16" s="18" t="s">
+        <v>224</v>
+      </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19" t="s">
-        <v>224</v>
-      </c>
-      <c r="D17" s="19" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
         <v>225</v>
       </c>
+      <c r="D17" s="18" t="s">
+        <v>226</v>
+      </c>
       <c r="E17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D18" s="19" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
         <v>227</v>
       </c>
+      <c r="D18" s="18" t="s">
+        <v>228</v>
+      </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19" t="s">
-        <v>228</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>229</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="19"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="C20" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="C20" s="18" t="s">
         <v>231</v>
       </c>
+      <c r="D20" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="D21" s="19" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
         <v>233</v>
       </c>
+      <c r="D21" s="18" t="s">
+        <v>234</v>
+      </c>
       <c r="E21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="D22" s="19" t="s">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
         <v>235</v>
       </c>
+      <c r="D22" s="18" t="s">
+        <v>236</v>
+      </c>
       <c r="E22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19" t="s">
-        <v>236</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>237</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19" t="s">
-        <v>237</v>
-      </c>
-      <c r="C24" s="19" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="C24" s="18" t="s">
         <v>239</v>
       </c>
+      <c r="D24" s="18" t="s">
+        <v>240</v>
+      </c>
       <c r="E24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19" t="s">
-        <v>240</v>
-      </c>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="C25" s="18" t="s">
         <v>242</v>
       </c>
+      <c r="D25" s="18" t="s">
+        <v>243</v>
+      </c>
       <c r="E25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="C26" s="19" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="C26" s="18" t="s">
         <v>245</v>
       </c>
+      <c r="D26" s="18" t="s">
+        <v>246</v>
+      </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="D27" s="19" t="s">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
         <v>247</v>
       </c>
+      <c r="D27" s="18" t="s">
+        <v>248</v>
+      </c>
       <c r="E27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="D28" s="19" t="s">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
         <v>249</v>
       </c>
+      <c r="D28" s="18" t="s">
+        <v>250</v>
+      </c>
       <c r="E28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="B29" s="19" t="s">
+      <c r="A29" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>253</v>
       </c>
+      <c r="D29" s="18" t="s">
+        <v>254</v>
+      </c>
       <c r="E29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="C30" s="19" t="s">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>256</v>
       </c>
+      <c r="D30" s="18" t="s">
+        <v>257</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="19" t="s">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
         <v>258</v>
       </c>
+      <c r="D31" s="18" t="s">
+        <v>259</v>
+      </c>
       <c r="E31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="B32" s="19" t="s">
+      <c r="A32" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>262</v>
       </c>
+      <c r="D32" s="18" t="s">
+        <v>263</v>
+      </c>
       <c r="E32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19" t="s">
-        <v>263</v>
-      </c>
-      <c r="D33" s="19" t="s">
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
         <v>264</v>
       </c>
+      <c r="D33" s="18" t="s">
+        <v>265</v>
+      </c>
       <c r="E33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="19"/>
-      <c r="B34" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="C34" s="19" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="C34" s="18" t="s">
         <v>267</v>
       </c>
+      <c r="D34" s="18" t="s">
+        <v>268</v>
+      </c>
       <c r="E34" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
         <v>269</v>
       </c>
+      <c r="D35" s="18" t="s">
+        <v>270</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
         <v>271</v>
       </c>
+      <c r="D36" s="18" t="s">
+        <v>272</v>
+      </c>
       <c r="E36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19" t="s">
-        <v>272</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
         <v>273</v>
       </c>
+      <c r="D37" s="18" t="s">
+        <v>274</v>
+      </c>
       <c r="E37" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19" t="s">
-        <v>274</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
         <v>275</v>
       </c>
+      <c r="D38" s="18" t="s">
+        <v>276</v>
+      </c>
       <c r="E38" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19" t="s">
-        <v>276</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
         <v>277</v>
       </c>
+      <c r="D39" s="18" t="s">
+        <v>278</v>
+      </c>
       <c r="E39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="C40" s="19" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
         <v>279</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>280</v>
       </c>
+      <c r="D40" s="18" t="s">
+        <v>281</v>
+      </c>
       <c r="E40" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="401">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -90,7 +90,7 @@
     <t xml:space="preserve">unica</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</t>
+    <t xml:space="preserve">1. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</t>
   </si>
   <si>
     <t xml:space="preserve">1. Indique número o código del acuerdo o acto administrativo.</t>
@@ -117,7 +117,7 @@
     <t xml:space="preserve">Pregunta 2. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Existen o existieron dentro de la planeación estratégica de su entidad enfoques / líneas / componentes / proyectos / programas o planes relacionados con el concepto de innovación pública?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes.</t>
+    <t xml:space="preserve">2. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes.</t>
   </si>
   <si>
     <t xml:space="preserve">2. Indique número o código del enfoque / línea / componente / proyecto / programa o plan.</t>
@@ -142,7 +142,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de funcionamiento año 2021</t>
+    <t xml:space="preserve">3. Presupuesto general de funcionamiento año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">3. Valor correspondiente al año 2021</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">3. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word)</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de funcionamiento año 2022</t>
+    <t xml:space="preserve">3. Presupuesto general de funcionamiento año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">3. Valor correspondiente al año 2022</t>
@@ -161,7 +161,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de funcionamiento ejecutado en innovación año 2021</t>
+    <t xml:space="preserve">4. Presupuesto general de funcionamiento ejecutado en innovación año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">4. Valor correspondiente al año 2021</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">4. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word)</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de funcionamiento ejecutado en innovación año 2022</t>
+    <t xml:space="preserve">4. Presupuesto general de funcionamiento ejecutado en innovación año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">4. Valor correspondiente al año 2022</t>
@@ -183,7 +183,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de inversión año 2021</t>
+    <t xml:space="preserve">5. Presupuesto general de inversión año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">5. Valor correspondiente al año 2021</t>
@@ -192,7 +192,7 @@
     <t xml:space="preserve">5. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word)</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de inversión año 2022</t>
+    <t xml:space="preserve">5. Presupuesto general de inversión año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">5. Valor correspondiente al año 2022</t>
@@ -202,7 +202,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de inversión ejecutado en innovación año 2021</t>
+    <t xml:space="preserve">6. Presupuesto general de inversión ejecutado en innovación año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">6. Valor correspondiente al año 2021</t>
@@ -211,7 +211,7 @@
     <t xml:space="preserve">6. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word)</t>
   </si>
   <si>
-    <t xml:space="preserve">Presupuesto general de inversión ejecutado en innovación año 2022</t>
+    <t xml:space="preserve">6. Presupuesto general de inversión ejecutado en innovación año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">6. Valor correspondiente al año 2022</t>
@@ -227,7 +227,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios del año 2021</t>
+    <t xml:space="preserve">7. Total de funcionarios del año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">7. Cantidad de funcionarios en 2021</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">7. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word).</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios del año 2022</t>
+    <t xml:space="preserve">7. Total de funcionarios del año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">7. Cantidad de funcionarios en 2022</t>
@@ -246,7 +246,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios en innovación por manual de funciones del año 2021</t>
+    <t xml:space="preserve">8. Total de funcionarios en innovación por manual de funciones del año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">8. Cantidad de funcionarios en innovación por manual de funciones en 2021</t>
@@ -255,7 +255,7 @@
     <t xml:space="preserve">8. Cantidad de funcionarios en innovación en 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios en innovación por manual de funciones del año 2022</t>
+    <t xml:space="preserve">8. Total de funcionarios en innovación por manual de funciones del año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">8. Cantidad de funcionarios en innovación por manual de funciones en 2022</t>
@@ -265,7 +265,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios en innovación ocasionalmente del año 2021</t>
+    <t xml:space="preserve">9. Total de funcionarios en innovación ocasionalmente del año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">9. Cantidad de funcionarios en innovación ocasionalmente en 2021</t>
@@ -274,7 +274,7 @@
     <t xml:space="preserve">9. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word).</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de funcionarios en innovación ocasionalmente del año 2022</t>
+    <t xml:space="preserve">9. Total de funcionarios en innovación ocasionalmente del año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">9. Cantidad de funcionarios en innovación ocasionalmente en 2022</t>
@@ -287,13 +287,13 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas del año 2021</t>
+    <t xml:space="preserve">10. Total de contratistas del año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">10. Cantidad de contratistas en 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas del año 2022</t>
+    <t xml:space="preserve">10. Total de contratistas del año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">10. Cantidad de contratistas en 2022</t>
@@ -303,7 +303,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas en innovación del año 2022</t>
+    <t xml:space="preserve">11. Total de contratistas en innovación del año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">11. Cantidad de contratistas directamente relacionados con la innovación en 2021</t>
@@ -312,7 +312,7 @@
     <t xml:space="preserve">11. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word).</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas en innovación del año 2021</t>
+    <t xml:space="preserve">11. Total de contratistas en innovación del año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">11. Cantidad de contratistas directamente relacionados con la innovación en 2022</t>
@@ -322,7 +322,7 @@
 Discrimine por año.</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas en innovación ocasionalmente del año 2021</t>
+    <t xml:space="preserve">12. Total de contratistas en innovación ocasionalmente del año 2021</t>
   </si>
   <si>
     <t xml:space="preserve">12. Cantidad de contratistas relacionados ocasionalmente con la innovación en 2021</t>
@@ -331,7 +331,7 @@
     <t xml:space="preserve">12. Ingrese un archivo de soporte que justifique su respuesta (PDF o Word).</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de contratistas en innovación ocasionalmente del año 2022</t>
+    <t xml:space="preserve">12. Total de contratistas en innovación ocasionalmente del año 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Variable 4. Recursos digitales</t>
@@ -343,7 +343,7 @@
     <t xml:space="preserve">Pregunta 13. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad incorporó recursos digitales como habilitantes de la innovación?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuáles recursos digitales se incorporaronEntre el 01 de enero de 2021 y el 31 de diciembre de 2022 como habilitantesPara la innovación en su entidad?</t>
+    <t xml:space="preserve">13. ¿Cuáles recursos digitales se incorporaronEntre el 01 de enero de 2021 y el 31 de diciembre de 2022 como habilitantesPara la innovación en su entidad?</t>
   </si>
   <si>
     <t xml:space="preserve">13. Ingrese el nombre del recurso digital.</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Pregunta 14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad identificó retos o áreas de oportunidad para abordar al interior de su entidad desde la innovación gracias a la información captada en "Bogotá te Escucha”?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </t>
+    <t xml:space="preserve">14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </t>
   </si>
   <si>
     <t xml:space="preserve">14. Indique el reto o área de oportunidad descubierta.</t>
@@ -394,7 +394,7 @@
     <t xml:space="preserve">Pregunta 15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,  ¿Su entidad identificó retos o áreas de oportunidad para abordar al interior de su entidad desde la innovación por canales diferentes a "Bogotá te Escucha"  dispuestos para la ciudadanía?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">15. Indique cada reto o área de oportunidad descubierta.</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">Pregunta 16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad identificó retos o áreas de oportunidad para abordar al interior de su entidad desde la innovación por canales dispuestos para los funcionarios y/o contratistas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">16. Indique el reto o área de oportunidad descubierta.</t>
@@ -445,7 +445,7 @@
     <t xml:space="preserve">Pregunta 17. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Cuáles fueron los canales que brindó su entidad para la identificación de retos o áreas de oportunidad en la entidad que usted representa?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregunta 17.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</t>
+    <t xml:space="preserve">17. Pregunta 17.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</t>
   </si>
   <si>
     <t xml:space="preserve">17. Indique el canal</t>
@@ -457,7 +457,7 @@
     <t xml:space="preserve">Pregunta 18. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Qué actividades se llevaron a cabo para la identificación de retos o áreas de oportunidad en la entidad que usted representa?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregunta 18.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</t>
+    <t xml:space="preserve">18. Pregunta 18.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</t>
   </si>
   <si>
     <t xml:space="preserve">18. Indique la actividad</t>
@@ -475,7 +475,7 @@
     <t xml:space="preserve">Pregunta 19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Se generaron o captaron ideas para abordar al interior de su entidad desde la innovación por canales dispuestos para la ciudadanía?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">19. Indique la idea captada o generada.</t>
@@ -499,7 +499,7 @@
     <t xml:space="preserve">Pregunta 20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Se generaron o captaron ideas para abordar al interior de su entidad desde la innovación por canales dispuestos para los funcionarios y/o contratistas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">20. Indique la idea captada o generada.</t>
@@ -523,7 +523,7 @@
     <t xml:space="preserve">Pregunta 21. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Cuáles fueron los canales que brindó su entidad para la recepción o generación de ideas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregunta 21.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la recepción o generación de ideas?</t>
+    <t xml:space="preserve">21. Pregunta 21.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la recepción o generación de ideas?</t>
   </si>
   <si>
     <t xml:space="preserve">21. Indique el canal</t>
@@ -535,7 +535,7 @@
     <t xml:space="preserve">Pregunta 22. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Qué actividades se llevaron a cabo para la recepción o generación de ideas en la entidad que usted representa?</t>
   </si>
   <si>
-    <t xml:space="preserve">Pregunta 22.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la recepción o generación de ideas en la entidad que usted representa?</t>
+    <t xml:space="preserve">22. Pregunta 22.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la recepción o generación de ideas en la entidad que usted representa?</t>
   </si>
   <si>
     <t xml:space="preserve">22. Indique la actividad</t>
@@ -553,7 +553,7 @@
     <t xml:space="preserve">Pregunta 23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿su entidad diseñó innovaciones encaminadas al cumplimiento de los objetivos y metas de su entidad?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">23. Nombre de la innovación diseñada</t>
@@ -586,7 +586,7 @@
     <t xml:space="preserve">Pregunta 24. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿se llevaron a cabo actividades relacionadas con la generación de capacidades de innovación en su entidad con funcionarios y/o contratistas?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">24.1. Nombre del evento</t>
@@ -604,7 +604,7 @@
     <t xml:space="preserve">24.1. Anexe fotografías o piezas gráficas que quiera socializarSobre el evento.</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">24.2. Nombre del evento</t>
@@ -622,7 +622,7 @@
     <t xml:space="preserve">24.2. Anexe fotografías o piezas gráficas que quiera socializarSobre el evento.</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">24.3. Nombre del evento</t>
@@ -640,7 +640,7 @@
     <t xml:space="preserve">24.3. Anexe fotografías o piezas gráficas que quiera socializarSobre la formación</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">24.4. Nombre del evento</t>
@@ -658,7 +658,7 @@
     <t xml:space="preserve">24.4. Anexe fotografías o piezas gráficas que quiera socializarSobre la formación</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">24. ¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">24.5. Nombre del evento</t>
@@ -685,7 +685,7 @@
     <t xml:space="preserve">Pregunta 25. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿En su entidad se ha promovido o generado una cultura de innovación para funcionarios y contratistas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cómo se ha generado y promovido una culturaPara la innovación pública al interior de su entidadPara funcionarios y contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">25. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cómo se ha generado y promovido una culturaPara la innovación pública al interior de su entidadPara funcionarios y contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">25. Nombre de la estratégia.</t>
@@ -703,7 +703,7 @@
     <t xml:space="preserve">Pregunta 26. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad generó espacios de experimentación, co-creación e incentivos enfocados a la innovación para sus funcionarios y contratistas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los espacios de experimentación, co-creación e incentivos enfocados a la innovación generadosPara los funcionarios y contratistas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">26. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los espacios de experimentación, co-creación e incentivos enfocados a la innovación generadosPara los funcionarios y contratistas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">26. Nombre del espacio.</t>
@@ -721,7 +721,7 @@
     <t xml:space="preserve">Pregunta 27. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad creó o contó con unidades de innovación como laboratorios, observatorios o semilleros de innovación en su interior?</t>
   </si>
   <si>
-    <t xml:space="preserve">Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las unidades de innovación como laboratorios, observatorios o semilleros de innovación al interior de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">27. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las unidades de innovación como laboratorios, observatorios o semilleros de innovación al interior de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">27. Ingrese el nombre de la unidad de innovación</t>
@@ -748,7 +748,7 @@
     <t xml:space="preserve">Pregunta 28. ¿Alguna de las innovaciones diseñadas entre el 01 de enero de 2021 y el 31 de diciembre de 2022 de la pregunta 23 fue implementada, o está en proceso de implementación actualmente?</t>
   </si>
   <si>
-    <t xml:space="preserve">Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">28. Nombre de la innovación</t>
@@ -784,31 +784,13 @@
     <t xml:space="preserve">Pregunta 29. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Los funcionarios recibieron formación en temas de innovación?</t>
   </si>
   <si>
-    <t xml:space="preserve">Total de  funcionarios formados en innovación en 2021</t>
+    <t xml:space="preserve">29. Total de  funcionarios formados en innovación en 2021</t>
   </si>
   <si>
     <t xml:space="preserve">29. Pregunta 29.1. Entre el 01 de enero de 2021 y el 31 de diciembre de 2021, ¿Cuántos funcionarios recibieron formación en temas de innovación?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Total de  funcionarios formados en innovación en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2022</t>
-    </r>
+    <t xml:space="preserve">29. Total de  funcionarios formados en innovación en 2022</t>
   </si>
   <si>
     <t xml:space="preserve">29. Pregunta 29.1. Entre el 01 de enero de 2022 y el 31 de diciembre de 2022, ¿Cuántos funcionarios recibieron formación en temas de innovación?</t>
@@ -820,49 +802,13 @@
     <t xml:space="preserve">Pregunta 30. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Los contratistas recibieron formación en temas de innovación?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Total de  contratistas formados en innovación en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2021</t>
-    </r>
+    <t xml:space="preserve">30. Total de  contratistas formados en innovación en 2021</t>
   </si>
   <si>
     <t xml:space="preserve">30. **Pregunta 30.1. Entre el 01 de enero de 2021 y el 31 de diciembre de 2021, ¿Cuántos contratistas recibieron formación en temas de innovación? Discrimine por año.**</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Total de  contratistas formados en innovación en </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2022</t>
-    </r>
+    <t xml:space="preserve">30. Total de  contratistas formados en innovación en 2022</t>
   </si>
   <si>
     <t xml:space="preserve">30. **Pregunta 30.1. Entre el 01 de enero de 2022 y el 31 de diciembre de 2022, ¿Cuántos contratistas recibieron formación en temas de innovación? Discrimine por año.**</t>
@@ -880,7 +826,7 @@
     <t xml:space="preserve">Pregunta 31. Desde su creación hasta el 31 de diciembre de 2022, ¿existen acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuáles? Ingrese los detalles de cada uno de los acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">31. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">31. Indique número o código del acuerdo o acto administrativo.</t>
@@ -901,7 +847,7 @@
     <t xml:space="preserve">Pregunta 32. ¿Existen dentro de la planeación estratégica de la entidad enfoques / líneas / componentes / proyectos / programas o planes a 31 de diciembre de 2022 relacionados con la gestión del conocimiento?</t>
   </si>
   <si>
-    <t xml:space="preserve">¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">32. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">32. Indique número o código del enfoque / línea / componente / proyecto / programa o plan.</t>
@@ -925,7 +871,7 @@
     <t xml:space="preserve">Pregunta 33. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de identificación de retos o áreas de oportunidad con la ciudadanía provenientes de los canales y/o actividades mencionadas en las preguntas 14 y 15?</t>
   </si>
   <si>
-    <t xml:space="preserve">Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">33. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">33. ¿En dónde se encuentra publicado el documento?</t>
@@ -940,6 +886,9 @@
     <t xml:space="preserve">Pregunta 34. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de identificación de retos o áreas de oportunidad con los funcionarios y/o contratistas de su entidad provenientes de los canales y/o actividades mencionados en la pregunta 16?</t>
   </si>
   <si>
+    <t xml:space="preserve">34. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">34. ¿Dónde publicó su entidad el documento?</t>
   </si>
   <si>
@@ -952,6 +901,9 @@
     <t xml:space="preserve">Pregunta 35. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de la recepción y generación de ideas con la ciudadanía provenientes de los canales y/o actividades mencionadas en la pregunta 19?</t>
   </si>
   <si>
+    <t xml:space="preserve">35. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">35. ¿Dónde publicó su entidad el documento?</t>
   </si>
   <si>
@@ -964,6 +916,9 @@
     <t xml:space="preserve">Pregunta 36. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad hizo público algún documento relacionado con el proceso, o los resultados del proceso, de la recepción y generación de ideas con los funcionarios y/o contratistas de su entidad provenientes de los canales y/o actividades mencionadas en la pregunta 20?</t>
   </si>
   <si>
+    <t xml:space="preserve">36. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">36. ¿Dónde publicó su entidad el documento?</t>
   </si>
   <si>
@@ -976,6 +931,9 @@
     <t xml:space="preserve">Pregunta 37.  Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad desarrolló algún tipo de documento encaminado a identificar y sistematizar lecciones aprendidas y buenas prácticasSobre las acciones de innovación desarrolladas por su entidad?</t>
   </si>
   <si>
+    <t xml:space="preserve">37. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">37. ¿Dónde publicó su entidad el documento?</t>
   </si>
   <si>
@@ -988,6 +946,9 @@
     <t xml:space="preserve">Pregunta 38. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad desarrolló algún tipo de documento encaminado a identificar y sistematizar lecciones aprendidas y buenas prácticasSobre las acciones de su entidad?</t>
   </si>
   <si>
+    <t xml:space="preserve">38. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+  </si>
+  <si>
     <t xml:space="preserve">38. ¿Dónde publicó su entidad el documento?</t>
   </si>
   <si>
@@ -1003,7 +964,7 @@
     <t xml:space="preserve">Pregunta 39. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022, ¿Su entidad desarrolló algún documento o matriz para hacer monitoreo y seguimiento a las innovaciones implementadas?</t>
   </si>
   <si>
-    <t xml:space="preserve">Sobre los mecanismos de monitoreo a las innovaciones. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
+    <t xml:space="preserve">39. Sobre los mecanismos de monitoreo a las innovaciones. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</t>
   </si>
   <si>
     <t xml:space="preserve">39. ¿Cuál fue el medio para hacer monitoreo?</t>
@@ -1298,7 +1259,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1328,12 +1289,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1391,7 +1346,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1449,14 +1404,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1605,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E132" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L138" activeCellId="0" sqref="L138"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1619,10 +1566,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="39.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="6" width="9.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="51.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="41.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="37.74"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="17" style="1" width="9.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="41.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="37.74"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16382" min="21" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1656,24 +1604,22 @@
       <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="M1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P1" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1708,29 +1654,22 @@
       <c r="J2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="10" t="n">
-        <v>1</v>
+      <c r="K2" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K2,". ",L2)</f>
-        <v>1. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</v>
+        <v>20</v>
+      </c>
+      <c r="M2" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="9" t="n">
+      <c r="O2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1765,29 +1704,22 @@
       <c r="J3" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K3" s="13" t="n">
-        <v>1</v>
+      <c r="K3" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M3" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K3,". ",L3)</f>
-        <v>1. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</v>
+        <v>20</v>
+      </c>
+      <c r="M3" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="12" t="n">
+      <c r="O3" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1822,29 +1754,22 @@
       <c r="J4" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K4" s="13" t="n">
-        <v>1</v>
+      <c r="K4" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M4" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K4,". ",L4)</f>
-        <v>1. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</v>
+        <v>20</v>
+      </c>
+      <c r="M4" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="12" t="n">
+      <c r="O4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1879,29 +1804,22 @@
       <c r="J5" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K5" s="13" t="n">
-        <v>1</v>
+      <c r="K5" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K5,". ",L5)</f>
-        <v>1. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos o actos administrativos.</v>
+        <v>20</v>
+      </c>
+      <c r="M5" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="12" t="n">
+      <c r="P5" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1936,29 +1854,22 @@
       <c r="J6" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="10" t="n">
-        <v>2</v>
+      <c r="K6" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K6,". ",L6)</f>
-        <v>2. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes.</v>
+        <v>20</v>
+      </c>
+      <c r="M6" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="9" t="n">
+      <c r="O6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1993,29 +1904,22 @@
       <c r="J7" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K7" s="13" t="n">
-        <v>2</v>
+      <c r="K7" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K7,". ",L7)</f>
-        <v>2. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes.</v>
+        <v>20</v>
+      </c>
+      <c r="M7" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="12" t="n">
+      <c r="O7" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2050,29 +1954,22 @@
       <c r="J8" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K8" s="13" t="n">
-        <v>2</v>
+      <c r="K8" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K8,". ",L8)</f>
-        <v>2. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes.</v>
+        <v>20</v>
+      </c>
+      <c r="M8" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="12" t="n">
+      <c r="O8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2107,29 +2004,22 @@
       <c r="J9" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K9" s="13" t="n">
-        <v>2</v>
+      <c r="K9" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K9,". ",L9)</f>
-        <v>2. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes.</v>
+        <v>20</v>
+      </c>
+      <c r="M9" s="13" t="n">
+        <v>4</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="12" t="n">
+      <c r="P9" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2164,29 +2054,22 @@
       <c r="J10" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K10" s="10" t="n">
-        <v>3</v>
+      <c r="K10" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K10,". ",L10)</f>
-        <v>3. Presupuesto general de funcionamiento año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M10" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="9" t="n">
+      <c r="O10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2221,29 +2104,22 @@
       <c r="J11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K11" s="13" t="n">
-        <v>3</v>
+      <c r="K11" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K11,". ",L11)</f>
-        <v>3. Presupuesto general de funcionamiento año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="12" t="n">
+      <c r="P11" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2278,29 +2154,22 @@
       <c r="J12" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K12" s="13" t="n">
-        <v>3</v>
+      <c r="K12" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K12,". ",L12)</f>
-        <v>3. Presupuesto general de funcionamiento año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M12" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O12" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="Q12" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" s="12" t="n">
+      <c r="O12" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2335,29 +2204,22 @@
       <c r="J13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" s="13" t="n">
-        <v>3</v>
+      <c r="K13" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="M13" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K13,". ",L13)</f>
-        <v>3. Presupuesto general de funcionamiento año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R13" s="12" t="n">
+      <c r="P13" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2392,29 +2254,22 @@
       <c r="J14" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="K14" s="10" t="n">
+      <c r="K14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K14,". ",L14)</f>
-        <v>4. Presupuesto general de funcionamiento ejecutado en innovación año 2021</v>
-      </c>
       <c r="N14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O14" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P14" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="9" t="n">
+      <c r="O14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="9" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2449,29 +2304,22 @@
       <c r="J15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K15" s="13" t="n">
+      <c r="K15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K15,". ",L15)</f>
-        <v>4. Presupuesto general de funcionamiento ejecutado en innovación año 2021</v>
-      </c>
       <c r="N15" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P15" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R15" s="12" t="n">
+      <c r="P15" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2506,29 +2354,22 @@
       <c r="J16" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K16" s="13" t="n">
+      <c r="K16" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M16" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K16,". ",L16)</f>
-        <v>4. Presupuesto general de funcionamiento ejecutado en innovación año 2022</v>
-      </c>
       <c r="N16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O16" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P16" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="12" t="n">
+      <c r="O16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2563,29 +2404,22 @@
       <c r="J17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="K17" s="13" t="n">
+      <c r="K17" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="L17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="M17" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K17,". ",L17)</f>
-        <v>4. Presupuesto general de funcionamiento ejecutado en innovación año 2022</v>
-      </c>
       <c r="N17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O17" s="13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="O17" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R17" s="12" t="n">
+      <c r="P17" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2620,29 +2454,22 @@
       <c r="J18" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K18" s="10" t="n">
-        <v>5</v>
+      <c r="K18" s="9" t="s">
+        <v>51</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K18,". ",L18)</f>
-        <v>5. Presupuesto general de inversión año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M18" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="9" t="n">
+      <c r="O18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2677,29 +2504,22 @@
       <c r="J19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K19" s="13" t="n">
-        <v>5</v>
+      <c r="K19" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K19,". ",L19)</f>
-        <v>5. Presupuesto general de inversión año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="O19" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R19" s="12" t="n">
+      <c r="P19" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,29 +2554,22 @@
       <c r="J20" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K20" s="13" t="n">
-        <v>5</v>
+      <c r="K20" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M20" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K20,". ",L20)</f>
-        <v>5. Presupuesto general de inversión año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M20" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="Q20" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="12" t="n">
+      <c r="O20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2791,29 +2604,22 @@
       <c r="J21" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K21" s="13" t="n">
-        <v>5</v>
+      <c r="K21" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="M21" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K21,". ",L21)</f>
-        <v>5. Presupuesto general de inversión año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O21" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="O21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R21" s="12" t="n">
+      <c r="P21" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2848,29 +2654,22 @@
       <c r="J22" s="10" t="n">
         <v>3.7</v>
       </c>
-      <c r="K22" s="10" t="n">
-        <v>6</v>
+      <c r="K22" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K22,". ",L22)</f>
-        <v>6. Presupuesto general de inversión ejecutado en innovación año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M22" s="10" t="n">
+        <v>3.7</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O22" s="10" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P22" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="10" t="n">
+      <c r="O22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="10" t="n">
         <v>3.7</v>
       </c>
     </row>
@@ -2905,29 +2704,22 @@
       <c r="J23" s="13" t="n">
         <v>3.7</v>
       </c>
-      <c r="K23" s="13" t="n">
-        <v>6</v>
+      <c r="K23" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="M23" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K23,". ",L23)</f>
-        <v>6. Presupuesto general de inversión ejecutado en innovación año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M23" s="13" t="n">
+        <v>3.7</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O23" s="13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P23" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="O23" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R23" s="12" t="n">
+      <c r="P23" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2962,29 +2754,22 @@
       <c r="J24" s="13" t="n">
         <v>3.7</v>
       </c>
-      <c r="K24" s="13" t="n">
-        <v>6</v>
+      <c r="K24" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K24,". ",L24)</f>
-        <v>6. Presupuesto general de inversión ejecutado en innovación año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M24" s="13" t="n">
+        <v>3.7</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O24" s="13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P24" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="Q24" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="12" t="n">
+      <c r="O24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3019,29 +2804,22 @@
       <c r="J25" s="13" t="n">
         <v>3.7</v>
       </c>
-      <c r="K25" s="13" t="n">
-        <v>6</v>
+      <c r="K25" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M25" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K25,". ",L25)</f>
-        <v>6. Presupuesto general de inversión ejecutado en innovación año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M25" s="13" t="n">
+        <v>3.7</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O25" s="13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="P25" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="Q25" s="12" t="s">
+      <c r="O25" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R25" s="12" t="n">
+      <c r="P25" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3076,29 +2854,22 @@
       <c r="J26" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K26" s="10" t="n">
-        <v>7</v>
+      <c r="K26" s="9" t="s">
+        <v>65</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="M26" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K26,". ",L26)</f>
-        <v>7. Total de funcionarios del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M26" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="Q26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="10" t="n">
+      <c r="O26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3133,29 +2904,22 @@
       <c r="J27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K27" s="13" t="n">
-        <v>7</v>
+      <c r="K27" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="M27" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K27,". ",L27)</f>
-        <v>7. Total de funcionarios del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M27" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O27" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="O27" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R27" s="12" t="n">
+      <c r="P27" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,29 +2954,22 @@
       <c r="J28" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K28" s="13" t="n">
-        <v>7</v>
+      <c r="K28" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M28" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K28,". ",L28)</f>
-        <v>7. Total de funcionarios del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M28" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O28" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="Q28" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="12" t="n">
+      <c r="O28" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3247,29 +3004,22 @@
       <c r="J29" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K29" s="13" t="n">
-        <v>7</v>
+      <c r="K29" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="M29" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K29,". ",L29)</f>
-        <v>7. Total de funcionarios del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M29" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O29" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="O29" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R29" s="12" t="n">
+      <c r="P29" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3304,29 +3054,22 @@
       <c r="J30" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="K30" s="10" t="n">
-        <v>8</v>
+      <c r="K30" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="M30" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K30,". ",L30)</f>
-        <v>8. Total de funcionarios en innovación por manual de funciones del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M30" s="10" t="n">
+        <v>4</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O30" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="P30" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Q30" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="10" t="n">
+      <c r="O30" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P30" s="10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3361,29 +3104,22 @@
       <c r="J31" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K31" s="12" t="n">
-        <v>8</v>
+      <c r="K31" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="M31" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K31,". ",L31)</f>
-        <v>8. Total de funcionarios en innovación por manual de funciones del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M31" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O31" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P31" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="Q31" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="12" t="n">
+      <c r="O31" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3418,29 +3154,22 @@
       <c r="J32" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K32" s="12" t="n">
-        <v>8</v>
+      <c r="K32" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M32" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K32,". ",L32)</f>
-        <v>8. Total de funcionarios en innovación por manual de funciones del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M32" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O32" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="Q32" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="12" t="n">
+      <c r="O32" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P32" s="12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3475,29 +3204,22 @@
       <c r="J33" s="12" t="n">
         <v>4</v>
       </c>
-      <c r="K33" s="12" t="n">
-        <v>8</v>
+      <c r="K33" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M33" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K33,". ",L33)</f>
-        <v>8. Total de funcionarios en innovación por manual de funciones del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M33" s="12" t="n">
+        <v>4</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O33" s="12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P33" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="Q33" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="12" t="n">
+      <c r="O33" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="12" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3532,29 +3254,22 @@
       <c r="J34" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K34" s="10" t="n">
-        <v>9</v>
+      <c r="K34" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="M34" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K34,". ",L34)</f>
-        <v>9. Total de funcionarios en innovación ocasionalmente del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M34" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O34" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="O34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R34" s="9" t="n">
+      <c r="P34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3589,33 +3304,28 @@
       <c r="J35" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="14" t="n">
-        <v>9</v>
+      <c r="K35" s="14" t="s">
+        <v>77</v>
       </c>
       <c r="L35" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M35" s="14" t="str">
-        <f aca="false">_xlfn.CONCAT(K35,". ",L35)</f>
-        <v>9. Total de funcionarios en innovación ocasionalmente del año 2021</v>
-      </c>
-      <c r="N35" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="O35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Q35" s="14" t="s">
+      <c r="O35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="R35" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
+      <c r="P35" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="0"/>
+      <c r="T35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">
@@ -3648,29 +3358,22 @@
       <c r="J36" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="13" t="n">
-        <v>9</v>
+      <c r="K36" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M36" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K36,". ",L36)</f>
-        <v>9. Total de funcionarios en innovación ocasionalmente del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M36" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O36" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Q36" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="12" t="n">
+      <c r="O36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P36" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3705,29 +3408,22 @@
       <c r="J37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K37" s="13" t="n">
-        <v>9</v>
+      <c r="K37" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="M37" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K37,". ",L37)</f>
-        <v>9. Total de funcionarios en innovación ocasionalmente del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O37" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="O37" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R37" s="12" t="n">
+      <c r="P37" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3762,29 +3458,22 @@
       <c r="J38" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K38" s="10" t="n">
-        <v>10</v>
+      <c r="K38" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M38" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K38,". ",L38)</f>
-        <v>10. Total de contratistas del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M38" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O38" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q38" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="9" t="n">
+      <c r="O38" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3819,29 +3508,22 @@
       <c r="J39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K39" s="13" t="n">
-        <v>10</v>
+      <c r="K39" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="M39" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K39,". ",L39)</f>
-        <v>10. Total de contratistas del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O39" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q39" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="12" t="n">
+      <c r="O39" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P39" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3876,29 +3558,22 @@
       <c r="J40" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K40" s="13" t="n">
-        <v>10</v>
+      <c r="K40" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M40" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K40,". ",L40)</f>
-        <v>10. Total de contratistas del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M40" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Q40" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="12" t="n">
+      <c r="O40" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3933,29 +3608,22 @@
       <c r="J41" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K41" s="13" t="n">
-        <v>10</v>
+      <c r="K41" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="M41" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K41,". ",L41)</f>
-        <v>10. Total de contratistas del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M41" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O41" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q41" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="12" t="n">
+      <c r="O41" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3990,29 +3658,22 @@
       <c r="J42" s="10" t="n">
         <v>4.7</v>
       </c>
-      <c r="K42" s="10" t="n">
-        <v>11</v>
+      <c r="K42" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="M42" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K42,". ",L42)</f>
-        <v>11. Total de contratistas en innovación del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M42" s="10" t="n">
+        <v>4.7</v>
       </c>
       <c r="N42" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O42" s="10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P42" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="Q42" s="9" t="s">
+      <c r="O42" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R42" s="9" t="n">
+      <c r="P42" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4047,29 +3708,22 @@
       <c r="J43" s="13" t="n">
         <v>4.7</v>
       </c>
-      <c r="K43" s="13" t="n">
-        <v>11</v>
+      <c r="K43" s="12" t="s">
+        <v>89</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="M43" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K43,". ",L43)</f>
-        <v>11. Total de contratistas en innovación del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M43" s="13" t="n">
+        <v>4.7</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O43" s="13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P43" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q43" s="12" t="s">
+      <c r="O43" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R43" s="12" t="n">
+      <c r="P43" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4104,29 +3758,22 @@
       <c r="J44" s="13" t="n">
         <v>4.7</v>
       </c>
-      <c r="K44" s="13" t="n">
-        <v>11</v>
+      <c r="K44" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M44" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K44,". ",L44)</f>
-        <v>11. Total de contratistas en innovación del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M44" s="13" t="n">
+        <v>4.7</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O44" s="13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P44" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="Q44" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="12" t="n">
+      <c r="O44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P44" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4161,29 +3808,22 @@
       <c r="J45" s="13" t="n">
         <v>4.7</v>
       </c>
-      <c r="K45" s="13" t="n">
-        <v>11</v>
+      <c r="K45" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="L45" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="M45" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K45,". ",L45)</f>
-        <v>11. Total de contratistas en innovación del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M45" s="13" t="n">
+        <v>4.7</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O45" s="13" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="P45" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="O45" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R45" s="12" t="n">
+      <c r="P45" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4218,29 +3858,22 @@
       <c r="J46" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="10" t="n">
-        <v>12</v>
+      <c r="K46" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="M46" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K46,". ",L46)</f>
-        <v>12. Total de contratistas en innovación ocasionalmente del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M46" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O46" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="Q46" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="9" t="n">
+      <c r="O46" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P46" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4275,29 +3908,22 @@
       <c r="J47" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K47" s="13" t="n">
-        <v>12</v>
+      <c r="K47" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="L47" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="M47" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K47,". ",L47)</f>
-        <v>12. Total de contratistas en innovación ocasionalmente del año 2021</v>
+        <v>23</v>
+      </c>
+      <c r="M47" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O47" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="O47" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R47" s="12" t="n">
+      <c r="P47" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4332,29 +3958,22 @@
       <c r="J48" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K48" s="13" t="n">
-        <v>12</v>
+      <c r="K48" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L48" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M48" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K48,". ",L48)</f>
-        <v>12. Total de contratistas en innovación ocasionalmente del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M48" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O48" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Q48" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="12" t="n">
+      <c r="O48" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P48" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,29 +4008,22 @@
       <c r="J49" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K49" s="13" t="n">
-        <v>12</v>
+      <c r="K49" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="L49" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K49,". ",L49)</f>
-        <v>12. Total de contratistas en innovación ocasionalmente del año 2022</v>
+        <v>23</v>
+      </c>
+      <c r="M49" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O49" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="O49" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R49" s="12" t="n">
+      <c r="P49" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4446,29 +4058,22 @@
       <c r="J50" s="10" t="n">
         <v>4.6</v>
       </c>
-      <c r="K50" s="10" t="n">
-        <v>13</v>
+      <c r="K50" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M50" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K50,". ",L50)</f>
-        <v>13. ¿Cuáles recursos digitales se incorporaronEntre el 01 de enero de 2021 y el 31 de diciembre de 2022 como habilitantesPara la innovación en su entidad?</v>
+        <v>20</v>
+      </c>
+      <c r="M50" s="10" t="n">
+        <v>4.6</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O50" s="10" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P50" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Q50" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="10" t="n">
+      <c r="O50" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P50" s="10" t="n">
         <v>4.6</v>
       </c>
     </row>
@@ -4503,29 +4108,22 @@
       <c r="J51" s="13" t="n">
         <v>4.6</v>
       </c>
-      <c r="K51" s="13" t="n">
-        <v>13</v>
+      <c r="K51" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="L51" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M51" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K51,". ",L51)</f>
-        <v>13. ¿Cuáles recursos digitales se incorporaronEntre el 01 de enero de 2021 y el 31 de diciembre de 2022 como habilitantesPara la innovación en su entidad?</v>
+        <v>20</v>
+      </c>
+      <c r="M51" s="13" t="n">
+        <v>4.6</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O51" s="13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P51" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="Q51" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="12" t="n">
+      <c r="O51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P51" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4560,29 +4158,22 @@
       <c r="J52" s="13" t="n">
         <v>4.6</v>
       </c>
-      <c r="K52" s="13" t="n">
-        <v>13</v>
+      <c r="K52" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="L52" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M52" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K52,". ",L52)</f>
-        <v>13. ¿Cuáles recursos digitales se incorporaronEntre el 01 de enero de 2021 y el 31 de diciembre de 2022 como habilitantesPara la innovación en su entidad?</v>
+        <v>20</v>
+      </c>
+      <c r="M52" s="13" t="n">
+        <v>4.6</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O52" s="13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P52" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Q52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="12" t="n">
+      <c r="O52" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P52" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4617,29 +4208,22 @@
       <c r="J53" s="13" t="n">
         <v>4.6</v>
       </c>
-      <c r="K53" s="13" t="n">
-        <v>13</v>
+      <c r="K53" s="12" t="s">
+        <v>102</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="M53" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K53,". ",L53)</f>
-        <v>13. ¿Cuáles recursos digitales se incorporaronEntre el 01 de enero de 2021 y el 31 de diciembre de 2022 como habilitantesPara la innovación en su entidad?</v>
+        <v>20</v>
+      </c>
+      <c r="M53" s="13" t="n">
+        <v>4.6</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O53" s="13" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="P53" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="Q53" s="12" t="s">
+      <c r="O53" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R53" s="12" t="n">
+      <c r="P53" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4674,29 +4258,22 @@
       <c r="J54" s="10" t="n">
         <v>2.8</v>
       </c>
-      <c r="K54" s="10" t="n">
-        <v>14</v>
+      <c r="K54" s="9" t="s">
+        <v>111</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K54,". ",L54)</f>
-        <v>14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </v>
+        <v>20</v>
+      </c>
+      <c r="M54" s="10" t="n">
+        <v>2.8</v>
       </c>
       <c r="N54" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O54" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P54" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="Q54" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="10" t="n">
+      <c r="O54" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P54" s="10" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -4731,29 +4308,22 @@
       <c r="J55" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K55" s="13" t="n">
-        <v>14</v>
+      <c r="K55" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="M55" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K55,". ",L55)</f>
-        <v>14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </v>
+        <v>20</v>
+      </c>
+      <c r="M55" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O55" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P55" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="Q55" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="12" t="n">
+      <c r="O55" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P55" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,29 +4358,22 @@
       <c r="J56" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K56" s="13" t="n">
-        <v>14</v>
+      <c r="K56" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K56,". ",L56)</f>
-        <v>14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </v>
+        <v>20</v>
+      </c>
+      <c r="M56" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O56" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P56" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="12" t="n">
+      <c r="O56" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P56" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4845,29 +4408,22 @@
       <c r="J57" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K57" s="13" t="n">
-        <v>14</v>
+      <c r="K57" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="M57" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K57,". ",L57)</f>
-        <v>14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </v>
+        <v>20</v>
+      </c>
+      <c r="M57" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O57" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P57" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q57" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="12" t="n">
+      <c r="O57" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P57" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4902,29 +4458,22 @@
       <c r="J58" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K58" s="13" t="n">
-        <v>14</v>
+      <c r="K58" s="12" t="s">
+        <v>111</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="M58" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K58,". ",L58)</f>
-        <v>14. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron gracias a la información captada en "Bogotá te Escucha"? </v>
+        <v>20</v>
+      </c>
+      <c r="M58" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O58" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P58" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="O58" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R58" s="12" t="n">
+      <c r="P58" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4959,29 +4508,22 @@
       <c r="J59" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K59" s="10" t="n">
-        <v>15</v>
+      <c r="K59" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="M59" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K59,". ",L59)</f>
-        <v>15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M59" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O59" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="Q59" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="10" t="n">
+      <c r="O59" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P59" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,29 +4558,22 @@
       <c r="J60" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K60" s="13" t="n">
-        <v>15</v>
+      <c r="K60" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M60" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K60,". ",L60)</f>
-        <v>15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M60" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O60" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="Q60" s="12" t="s">
+      <c r="O60" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R60" s="12" t="n">
+      <c r="P60" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5073,29 +4608,22 @@
       <c r="J61" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K61" s="13" t="n">
-        <v>15</v>
+      <c r="K61" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M61" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K61,". ",L61)</f>
-        <v>15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M61" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O61" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P61" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Q61" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="12" t="n">
+      <c r="O61" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P61" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5130,29 +4658,22 @@
       <c r="J62" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K62" s="13" t="n">
-        <v>15</v>
+      <c r="K62" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M62" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K62,". ",L62)</f>
-        <v>15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M62" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O62" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P62" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="Q62" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R62" s="12" t="n">
+      <c r="O62" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5187,29 +4708,22 @@
       <c r="J63" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K63" s="13" t="n">
-        <v>15</v>
+      <c r="K63" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="L63" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M63" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K63,". ",L63)</f>
-        <v>15. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales complementarios a "Bogotá te Escucha" dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M63" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O63" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="Q63" s="12" t="s">
+      <c r="O63" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R63" s="12" t="n">
+      <c r="P63" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5244,29 +4758,22 @@
       <c r="J64" s="10" t="n">
         <v>2.8</v>
       </c>
-      <c r="K64" s="10" t="n">
-        <v>16</v>
+      <c r="K64" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="M64" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K64,". ",L64)</f>
-        <v>16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M64" s="10" t="n">
+        <v>2.8</v>
       </c>
       <c r="N64" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O64" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P64" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="Q64" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="10" t="n">
+      <c r="O64" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P64" s="10" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -5301,29 +4808,22 @@
       <c r="J65" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K65" s="13" t="n">
-        <v>16</v>
+      <c r="K65" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="L65" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M65" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K65,". ",L65)</f>
-        <v>16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M65" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O65" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P65" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="Q65" s="12" t="s">
+      <c r="O65" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R65" s="12" t="n">
+      <c r="P65" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5358,29 +4858,22 @@
       <c r="J66" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K66" s="13" t="n">
-        <v>16</v>
+      <c r="K66" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M66" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K66,". ",L66)</f>
-        <v>16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M66" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O66" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P66" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="Q66" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="12" t="n">
+      <c r="O66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P66" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5415,29 +4908,22 @@
       <c r="J67" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K67" s="13" t="n">
-        <v>16</v>
+      <c r="K67" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M67" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K67,". ",L67)</f>
-        <v>16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M67" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N67" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O67" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P67" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q67" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R67" s="12" t="n">
+      <c r="O67" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5472,29 +4958,22 @@
       <c r="J68" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K68" s="13" t="n">
-        <v>16</v>
+      <c r="K68" s="12" t="s">
+        <v>128</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="M68" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K68,". ",L68)</f>
-        <v>16. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles retos o áreas de oportunidadPara abordar al interior de su entidad desde la innovación se identificaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M68" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N68" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O68" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P68" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="Q68" s="12" t="s">
+      <c r="O68" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R68" s="12" t="n">
+      <c r="P68" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5529,29 +5008,22 @@
       <c r="J69" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="K69" s="10" t="n">
-        <v>17</v>
-      </c>
-      <c r="L69" s="8" t="s">
+      <c r="K69" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="M69" s="8" t="str">
-        <f aca="false">_xlfn.CONCAT(K69,". ",L69)</f>
-        <v>17. Pregunta 17.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</v>
+      <c r="L69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M69" s="10" t="n">
+        <v>1.2</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O69" s="10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P69" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Q69" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="10" t="n">
+      <c r="O69" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P69" s="10" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -5586,29 +5058,22 @@
       <c r="J70" s="13" t="n">
         <v>1.2</v>
       </c>
-      <c r="K70" s="13" t="n">
-        <v>17</v>
+      <c r="K70" s="12" t="s">
+        <v>136</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="M70" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K70,". ",L70)</f>
-        <v>17. Pregunta 17.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</v>
+        <v>23</v>
+      </c>
+      <c r="M70" s="13" t="n">
+        <v>1.2</v>
       </c>
       <c r="N70" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O70" s="13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P70" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="Q70" s="12" t="s">
+      <c r="O70" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R70" s="12" t="n">
+      <c r="P70" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5643,29 +5108,22 @@
       <c r="J71" s="10" t="n">
         <v>1.2</v>
       </c>
-      <c r="K71" s="10" t="n">
-        <v>18</v>
-      </c>
-      <c r="L71" s="8" t="s">
+      <c r="K71" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="M71" s="8" t="str">
-        <f aca="false">_xlfn.CONCAT(K71,". ",L71)</f>
-        <v>18. Pregunta 18.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</v>
+      <c r="L71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M71" s="10" t="n">
+        <v>1.2</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O71" s="10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P71" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="Q71" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="10" t="n">
+      <c r="O71" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P71" s="10" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -5700,29 +5158,22 @@
       <c r="J72" s="13" t="n">
         <v>1.2</v>
       </c>
-      <c r="K72" s="13" t="n">
-        <v>18</v>
+      <c r="K72" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="L72" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="M72" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K72,". ",L72)</f>
-        <v>18. Pregunta 18.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la identificación de retos o áreas de oportunidad en la entidad que usted representa?</v>
+        <v>23</v>
+      </c>
+      <c r="M72" s="13" t="n">
+        <v>1.2</v>
       </c>
       <c r="N72" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O72" s="13" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P72" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="Q72" s="12" t="s">
+      <c r="O72" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R72" s="12" t="n">
+      <c r="P72" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5757,29 +5208,22 @@
       <c r="J73" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="K73" s="10" t="n">
-        <v>19</v>
+      <c r="K73" s="9" t="s">
+        <v>146</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="M73" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K73,". ",L73)</f>
-        <v>19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M73" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O73" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P73" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="Q73" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="10" t="n">
+      <c r="O73" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P73" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5814,29 +5258,22 @@
       <c r="J74" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K74" s="13" t="n">
-        <v>19</v>
+      <c r="K74" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M74" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K74,". ",L74)</f>
-        <v>19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M74" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N74" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O74" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P74" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="Q74" s="12" t="s">
+      <c r="O74" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R74" s="12" t="n">
+      <c r="P74" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5871,29 +5308,22 @@
       <c r="J75" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K75" s="13" t="n">
-        <v>19</v>
+      <c r="K75" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M75" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K75,". ",L75)</f>
-        <v>19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M75" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N75" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O75" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P75" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="Q75" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="12" t="n">
+      <c r="O75" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P75" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5928,29 +5358,22 @@
       <c r="J76" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K76" s="13" t="n">
-        <v>19</v>
+      <c r="K76" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="L76" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M76" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K76,". ",L76)</f>
-        <v>19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M76" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O76" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P76" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="Q76" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R76" s="12" t="n">
+      <c r="O76" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5985,29 +5408,22 @@
       <c r="J77" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K77" s="13" t="n">
-        <v>19</v>
+      <c r="K77" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="M77" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K77,". ",L77)</f>
-        <v>19. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara la ciudadanía? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M77" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O77" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P77" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="Q77" s="12" t="s">
+      <c r="O77" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R77" s="12" t="n">
+      <c r="P77" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6042,29 +5458,22 @@
       <c r="J78" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="K78" s="10" t="n">
-        <v>20</v>
+      <c r="K78" s="9" t="s">
+        <v>154</v>
       </c>
       <c r="L78" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M78" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K78,". ",L78)</f>
-        <v>20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M78" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O78" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P78" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="Q78" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="10" t="n">
+      <c r="O78" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -6099,29 +5508,22 @@
       <c r="J79" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K79" s="13" t="n">
-        <v>20</v>
+      <c r="K79" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M79" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K79,". ",L79)</f>
-        <v>20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M79" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O79" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P79" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="Q79" s="12" t="s">
+      <c r="O79" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R79" s="12" t="n">
+      <c r="P79" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6156,29 +5558,22 @@
       <c r="J80" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K80" s="13" t="n">
-        <v>20</v>
+      <c r="K80" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M80" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K80,". ",L80)</f>
-        <v>20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M80" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O80" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P80" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="Q80" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="12" t="n">
+      <c r="O80" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P80" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6213,29 +5608,22 @@
       <c r="J81" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K81" s="13" t="n">
-        <v>20</v>
+      <c r="K81" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M81" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K81,". ",L81)</f>
-        <v>20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M81" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O81" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P81" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="Q81" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R81" s="12" t="n">
+      <c r="O81" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6270,29 +5658,22 @@
       <c r="J82" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K82" s="13" t="n">
-        <v>20</v>
+      <c r="K82" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="M82" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K82,". ",L82)</f>
-        <v>20. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles ideasPara abordar al interior de su entidad desde la innovación se captaron o generaron a través de canales dispuestosPara los funcionarios y/o contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M82" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O82" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P82" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Q82" s="12" t="s">
+      <c r="O82" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R82" s="12" t="n">
+      <c r="P82" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6327,29 +5708,22 @@
       <c r="J83" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K83" s="10" t="n">
-        <v>21</v>
+      <c r="K83" s="9" t="s">
+        <v>162</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="M83" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K83,". ",L83)</f>
-        <v>21. Pregunta 21.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la recepción o generación de ideas?</v>
+        <v>23</v>
+      </c>
+      <c r="M83" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O83" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P83" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="Q83" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="10" t="n">
+      <c r="O83" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P83" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6384,29 +5758,22 @@
       <c r="J84" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K84" s="13" t="n">
-        <v>21</v>
+      <c r="K84" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="M84" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K84,". ",L84)</f>
-        <v>21. Pregunta 21.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los canales que brindó su entidadPara la recepción o generación de ideas?</v>
+        <v>23</v>
+      </c>
+      <c r="M84" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O84" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P84" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Q84" s="12" t="s">
+      <c r="O84" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R84" s="12" t="n">
+      <c r="P84" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6441,29 +5808,22 @@
       <c r="J85" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K85" s="10" t="n">
-        <v>22</v>
+      <c r="K85" s="9" t="s">
+        <v>166</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="M85" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K85,". ",L85)</f>
-        <v>22. Pregunta 22.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la recepción o generación de ideas en la entidad que usted representa?</v>
+        <v>23</v>
+      </c>
+      <c r="M85" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O85" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P85" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="Q85" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R85" s="9" t="n">
+      <c r="O85" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6498,29 +5858,22 @@
       <c r="J86" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K86" s="13" t="n">
-        <v>22</v>
+      <c r="K86" s="12" t="s">
+        <v>166</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="M86" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K86,". ",L86)</f>
-        <v>22. Pregunta 22.Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Qué actividades se llevaron a caboPara la recepción o generación de ideas en la entidad que usted representa?</v>
+        <v>23</v>
+      </c>
+      <c r="M86" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="O86" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P86" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="Q86" s="12" t="s">
+      <c r="O86" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R86" s="12" t="n">
+      <c r="P86" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6555,29 +5908,22 @@
       <c r="J87" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="K87" s="10" t="n">
-        <v>23</v>
+      <c r="K87" s="9" t="s">
+        <v>172</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="M87" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K87,". ",L87)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M87" s="10" t="n">
+        <v>7</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O87" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="P87" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Q87" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R87" s="10" t="n">
+      <c r="O87" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P87" s="10" t="n">
         <v>7</v>
       </c>
     </row>
@@ -6612,29 +5958,22 @@
       <c r="J88" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="K88" s="13" t="n">
-        <v>23</v>
+      <c r="K88" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M88" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K88,". ",L88)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M88" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N88" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O88" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="P88" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="Q88" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R88" s="12" t="n">
+      <c r="O88" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P88" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6669,29 +6008,22 @@
       <c r="J89" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="K89" s="13" t="n">
-        <v>23</v>
+      <c r="K89" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M89" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K89,". ",L89)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M89" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O89" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="P89" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="Q89" s="12" t="s">
+      <c r="O89" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R89" s="12" t="n">
+      <c r="P89" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6726,29 +6058,22 @@
       <c r="J90" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="K90" s="13" t="n">
-        <v>23</v>
+      <c r="K90" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M90" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K90,". ",L90)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M90" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O90" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="P90" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="Q90" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R90" s="12" t="n">
+      <c r="O90" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P90" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6783,29 +6108,22 @@
       <c r="J91" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="K91" s="13" t="n">
-        <v>23</v>
+      <c r="K91" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M91" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K91,". ",L91)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M91" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O91" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="P91" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="Q91" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R91" s="12" t="n">
+      <c r="O91" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P91" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6840,29 +6158,22 @@
       <c r="J92" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="K92" s="13" t="n">
-        <v>23</v>
+      <c r="K92" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M92" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K92,". ",L92)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M92" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O92" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="P92" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="Q92" s="12" t="s">
+      <c r="O92" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R92" s="12" t="n">
+      <c r="P92" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6897,29 +6208,22 @@
       <c r="J93" s="13" t="n">
         <v>7</v>
       </c>
-      <c r="K93" s="13" t="n">
-        <v>23</v>
+      <c r="K93" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="M93" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K93,". ",L93)</f>
-        <v>23. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las innovaciones diseñadas encaminadas al cumplimiento de los objetivos y metas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M93" s="13" t="n">
+        <v>7</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O93" s="13" t="n">
-        <v>7</v>
-      </c>
-      <c r="P93" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="Q93" s="12" t="s">
+      <c r="O93" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R93" s="12" t="n">
+      <c r="P93" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6954,29 +6258,22 @@
       <c r="J94" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K94" s="10" t="n">
-        <v>24</v>
+      <c r="K94" s="9" t="s">
+        <v>183</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="M94" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K94,". ",L94)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M94" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N94" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O94" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P94" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Q94" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R94" s="10" t="n">
+      <c r="O94" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P94" s="10" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7011,29 +6308,22 @@
       <c r="J95" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K95" s="13" t="n">
-        <v>24</v>
+      <c r="K95" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M95" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K95,". ",L95)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M95" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O95" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P95" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="Q95" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R95" s="12" t="n">
+      <c r="O95" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P95" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7068,29 +6358,22 @@
       <c r="J96" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K96" s="13" t="n">
-        <v>24</v>
+      <c r="K96" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M96" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K96,". ",L96)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M96" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O96" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P96" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="Q96" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R96" s="12" t="n">
+      <c r="O96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P96" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7125,29 +6408,22 @@
       <c r="J97" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K97" s="13" t="n">
-        <v>24</v>
+      <c r="K97" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="L97" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M97" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K97,". ",L97)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M97" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N97" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O97" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P97" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Q97" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R97" s="12" t="n">
+      <c r="O97" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P97" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7182,29 +6458,22 @@
       <c r="J98" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K98" s="13" t="n">
-        <v>24</v>
+      <c r="K98" s="12" t="s">
+        <v>183</v>
       </c>
       <c r="L98" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="M98" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K98,". ",L98)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas directamente por su entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M98" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N98" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O98" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P98" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="Q98" s="12" t="s">
+      <c r="O98" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R98" s="12" t="n">
+      <c r="P98" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7239,29 +6508,22 @@
       <c r="J99" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K99" s="10" t="n">
-        <v>24</v>
+      <c r="K99" s="9" t="s">
+        <v>189</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="M99" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K99,". ",L99)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M99" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N99" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O99" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P99" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="Q99" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R99" s="10" t="n">
+      <c r="O99" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P99" s="10" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7296,29 +6558,22 @@
       <c r="J100" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K100" s="13" t="n">
-        <v>24</v>
+      <c r="K100" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="L100" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M100" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K100,". ",L100)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M100" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N100" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O100" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P100" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="Q100" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R100" s="12" t="n">
+      <c r="O100" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P100" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7353,29 +6608,22 @@
       <c r="J101" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K101" s="13" t="n">
-        <v>24</v>
+      <c r="K101" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="L101" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M101" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K101,". ",L101)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M101" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N101" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O101" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P101" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="Q101" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R101" s="12" t="n">
+      <c r="O101" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P101" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7410,29 +6658,22 @@
       <c r="J102" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K102" s="13" t="n">
-        <v>24</v>
+      <c r="K102" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="L102" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M102" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K102,". ",L102)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M102" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N102" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O102" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P102" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="Q102" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R102" s="12" t="n">
+      <c r="O102" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P102" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7467,29 +6708,22 @@
       <c r="J103" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K103" s="13" t="n">
-        <v>24</v>
+      <c r="K103" s="12" t="s">
+        <v>189</v>
       </c>
       <c r="L103" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="M103" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K103,". ",L103)</f>
-        <v>24. ¿Qué eventos, conferencias y/o charlas auspiciadas y/o financiadas por otra entidad fueron desarrolladas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M103" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N103" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O103" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P103" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="Q103" s="12" t="s">
+      <c r="O103" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R103" s="12" t="n">
+      <c r="P103" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7524,29 +6758,22 @@
       <c r="J104" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K104" s="10" t="n">
-        <v>24</v>
+      <c r="K104" s="9" t="s">
+        <v>195</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="M104" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K104,". ",L104)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M104" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N104" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O104" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P104" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="Q104" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R104" s="10" t="n">
+      <c r="O104" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P104" s="10" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7581,29 +6808,22 @@
       <c r="J105" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K105" s="13" t="n">
-        <v>24</v>
+      <c r="K105" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L105" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="M105" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K105,". ",L105)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M105" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N105" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O105" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P105" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="Q105" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R105" s="12" t="n">
+      <c r="O105" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P105" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7638,29 +6858,22 @@
       <c r="J106" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K106" s="13" t="n">
-        <v>24</v>
+      <c r="K106" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="M106" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K106,". ",L106)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M106" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N106" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O106" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P106" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="Q106" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R106" s="12" t="n">
+      <c r="O106" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P106" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7695,29 +6908,22 @@
       <c r="J107" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K107" s="13" t="n">
-        <v>24</v>
+      <c r="K107" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L107" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="M107" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K107,". ",L107)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M107" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N107" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O107" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P107" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="Q107" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R107" s="12" t="n">
+      <c r="O107" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P107" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7752,29 +6958,22 @@
       <c r="J108" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K108" s="13" t="n">
-        <v>24</v>
+      <c r="K108" s="12" t="s">
+        <v>195</v>
       </c>
       <c r="L108" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="M108" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K108,". ",L108)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas directamente por su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M108" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N108" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O108" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P108" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="Q108" s="12" t="s">
+      <c r="O108" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R108" s="12" t="n">
+      <c r="P108" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7809,29 +7008,22 @@
       <c r="J109" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K109" s="10" t="n">
-        <v>24</v>
+      <c r="K109" s="9" t="s">
+        <v>201</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="M109" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K109,". ",L109)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M109" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N109" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O109" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P109" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="Q109" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R109" s="10" t="n">
+      <c r="O109" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P109" s="10" t="n">
         <v>1.5</v>
       </c>
     </row>
@@ -7866,29 +7058,22 @@
       <c r="J110" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K110" s="13" t="n">
-        <v>24</v>
+      <c r="K110" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="L110" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="M110" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K110,". ",L110)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M110" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N110" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O110" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P110" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="Q110" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R110" s="12" t="n">
+      <c r="O110" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P110" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7923,29 +7108,22 @@
       <c r="J111" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K111" s="13" t="n">
-        <v>24</v>
+      <c r="K111" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="L111" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="M111" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K111,". ",L111)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M111" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N111" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O111" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P111" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="Q111" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R111" s="12" t="n">
+      <c r="O111" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P111" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7980,29 +7158,22 @@
       <c r="J112" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K112" s="13" t="n">
-        <v>24</v>
+      <c r="K112" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="L112" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="M112" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K112,". ",L112)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M112" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N112" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O112" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P112" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="Q112" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R112" s="12" t="n">
+      <c r="O112" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P112" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8037,29 +7208,22 @@
       <c r="J113" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K113" s="13" t="n">
-        <v>24</v>
+      <c r="K113" s="12" t="s">
+        <v>201</v>
       </c>
       <c r="L113" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="M113" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K113,". ",L113)</f>
-        <v>24. ¿Qué actividades de formación o capacitación en temas de innovación fueron auspiciadas y/o financiadas por otra entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M113" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N113" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O113" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P113" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="Q113" s="12" t="s">
+      <c r="O113" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R113" s="12" t="n">
+      <c r="P113" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8094,29 +7258,22 @@
       <c r="J114" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K114" s="10" t="n">
-        <v>24</v>
+      <c r="K114" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="M114" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K114,". ",L114)</f>
-        <v>24. ¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M114" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N114" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O114" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P114" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="Q114" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R114" s="10" t="n">
+      <c r="O114" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P114" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8151,29 +7308,22 @@
       <c r="J115" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K115" s="13" t="n">
-        <v>24</v>
+      <c r="K115" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L115" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="M115" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K115,". ",L115)</f>
-        <v>24. ¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M115" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N115" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O115" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P115" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="Q115" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R115" s="12" t="n">
+      <c r="O115" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P115" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8208,29 +7358,22 @@
       <c r="J116" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K116" s="13" t="n">
-        <v>24</v>
+      <c r="K116" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L116" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="M116" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K116,". ",L116)</f>
-        <v>24. ¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M116" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N116" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O116" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P116" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="Q116" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R116" s="12" t="n">
+      <c r="O116" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P116" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8265,29 +7408,22 @@
       <c r="J117" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K117" s="13" t="n">
-        <v>24</v>
+      <c r="K117" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L117" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="M117" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K117,". ",L117)</f>
-        <v>24. ¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M117" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N117" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O117" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P117" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="Q117" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R117" s="12" t="n">
+      <c r="O117" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P117" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8322,29 +7458,22 @@
       <c r="J118" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K118" s="13" t="n">
-        <v>24</v>
+      <c r="K118" s="12" t="s">
+        <v>207</v>
       </c>
       <c r="L118" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="M118" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K118,". ",L118)</f>
-        <v>24. ¿Qué otras actividades desarrolló su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M118" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N118" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O118" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P118" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="Q118" s="12" t="s">
+      <c r="O118" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R118" s="12" t="n">
+      <c r="P118" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8379,29 +7508,22 @@
       <c r="J119" s="10" t="n">
         <v>2.8</v>
       </c>
-      <c r="K119" s="10" t="n">
-        <v>25</v>
+      <c r="K119" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="L119" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="M119" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K119,". ",L119)</f>
-        <v>25. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cómo se ha generado y promovido una culturaPara la innovación pública al interior de su entidadPara funcionarios y contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M119" s="10" t="n">
+        <v>2.8</v>
       </c>
       <c r="N119" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O119" s="10" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P119" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="Q119" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R119" s="10" t="n">
+      <c r="O119" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P119" s="10" t="n">
         <v>2.8</v>
       </c>
     </row>
@@ -8436,29 +7558,22 @@
       <c r="J120" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K120" s="13" t="n">
-        <v>25</v>
+      <c r="K120" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="L120" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="M120" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K120,". ",L120)</f>
-        <v>25. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cómo se ha generado y promovido una culturaPara la innovación pública al interior de su entidadPara funcionarios y contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M120" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N120" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O120" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P120" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="Q120" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R120" s="12" t="n">
+      <c r="O120" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P120" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8493,29 +7608,22 @@
       <c r="J121" s="13" t="n">
         <v>2.8</v>
       </c>
-      <c r="K121" s="13" t="n">
-        <v>25</v>
+      <c r="K121" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="L121" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="M121" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K121,". ",L121)</f>
-        <v>25. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cómo se ha generado y promovido una culturaPara la innovación pública al interior de su entidadPara funcionarios y contratistas? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M121" s="13" t="n">
+        <v>2.8</v>
       </c>
       <c r="N121" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O121" s="13" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="P121" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="Q121" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R121" s="12" t="n">
+      <c r="O121" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P121" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8550,29 +7658,22 @@
       <c r="J122" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="K122" s="10" t="n">
-        <v>26</v>
+      <c r="K122" s="9" t="s">
+        <v>222</v>
       </c>
       <c r="L122" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="M122" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K122,". ",L122)</f>
-        <v>26. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los espacios de experimentación, co-creación e incentivos enfocados a la innovación generadosPara los funcionarios y contratistas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M122" s="10" t="n">
+        <v>1.1</v>
       </c>
       <c r="N122" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O122" s="10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P122" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="Q122" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R122" s="10" t="n">
+      <c r="O122" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P122" s="10" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -8607,29 +7708,22 @@
       <c r="J123" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K123" s="13" t="n">
-        <v>26</v>
+      <c r="K123" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="L123" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="M123" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K123,". ",L123)</f>
-        <v>26. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los espacios de experimentación, co-creación e incentivos enfocados a la innovación generadosPara los funcionarios y contratistas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M123" s="13" t="n">
+        <v>1.1</v>
       </c>
       <c r="N123" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O123" s="13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P123" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="Q123" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R123" s="12" t="n">
+      <c r="O123" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P123" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8664,29 +7758,22 @@
       <c r="J124" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K124" s="13" t="n">
-        <v>26</v>
+      <c r="K124" s="12" t="s">
+        <v>222</v>
       </c>
       <c r="L124" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="M124" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K124,". ",L124)</f>
-        <v>26. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron los espacios de experimentación, co-creación e incentivos enfocados a la innovación generadosPara los funcionarios y contratistas de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M124" s="13" t="n">
+        <v>1.1</v>
       </c>
       <c r="N124" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O124" s="13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P124" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="Q124" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R124" s="12" t="n">
+      <c r="O124" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P124" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8721,29 +7808,22 @@
       <c r="J125" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="K125" s="10" t="n">
-        <v>27</v>
+      <c r="K125" s="9" t="s">
+        <v>228</v>
       </c>
       <c r="L125" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="M125" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K125,". ",L125)</f>
-        <v>27. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las unidades de innovación como laboratorios, observatorios o semilleros de innovación al interior de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M125" s="10" t="n">
+        <v>1.1</v>
       </c>
       <c r="N125" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O125" s="10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P125" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="Q125" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R125" s="10" t="n">
+      <c r="O125" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P125" s="10" t="n">
         <v>1.1</v>
       </c>
     </row>
@@ -8778,29 +7858,22 @@
       <c r="J126" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K126" s="13" t="n">
-        <v>27</v>
+      <c r="K126" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="L126" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="M126" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K126,". ",L126)</f>
-        <v>27. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las unidades de innovación como laboratorios, observatorios o semilleros de innovación al interior de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M126" s="13" t="n">
+        <v>1.1</v>
       </c>
       <c r="N126" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O126" s="13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P126" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="Q126" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R126" s="12" t="n">
+      <c r="O126" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P126" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8835,29 +7908,22 @@
       <c r="J127" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K127" s="13" t="n">
-        <v>27</v>
+      <c r="K127" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="L127" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="M127" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K127,". ",L127)</f>
-        <v>27. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las unidades de innovación como laboratorios, observatorios o semilleros de innovación al interior de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M127" s="13" t="n">
+        <v>1.1</v>
       </c>
       <c r="N127" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O127" s="13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P127" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="Q127" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R127" s="12" t="n">
+      <c r="O127" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P127" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8892,29 +7958,22 @@
       <c r="J128" s="13" t="n">
         <v>1.1</v>
       </c>
-      <c r="K128" s="13" t="n">
-        <v>27</v>
+      <c r="K128" s="12" t="s">
+        <v>228</v>
       </c>
       <c r="L128" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="M128" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K128,". ",L128)</f>
-        <v>27. Entre el 01 de enero de 2021 y el 31 de diciembre de 2022,¿Cuáles fueron las unidades de innovación como laboratorios, observatorios o semilleros de innovación al interior de su entidad? (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M128" s="13" t="n">
+        <v>1.1</v>
       </c>
       <c r="N128" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O128" s="13" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P128" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="Q128" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R128" s="12" t="n">
+      <c r="O128" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P128" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8949,29 +8008,22 @@
       <c r="J129" s="10" t="n">
         <v>20.5</v>
       </c>
-      <c r="K129" s="10" t="n">
-        <v>28</v>
+      <c r="K129" s="9" t="s">
+        <v>237</v>
       </c>
       <c r="L129" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="M129" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K129,". ",L129)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M129" s="10" t="n">
+        <v>20.5</v>
       </c>
       <c r="N129" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O129" s="10" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P129" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="Q129" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R129" s="10" t="n">
+      <c r="O129" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P129" s="10" t="n">
         <v>20.5</v>
       </c>
     </row>
@@ -9006,29 +8058,22 @@
       <c r="J130" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K130" s="13" t="n">
-        <v>28</v>
+      <c r="K130" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L130" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M130" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K130,". ",L130)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M130" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N130" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O130" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P130" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="Q130" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R130" s="12" t="n">
+      <c r="O130" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P130" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9063,29 +8108,22 @@
       <c r="J131" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K131" s="13" t="n">
-        <v>28</v>
+      <c r="K131" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L131" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M131" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K131,". ",L131)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M131" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N131" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O131" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P131" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="Q131" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R131" s="12" t="n">
+      <c r="O131" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P131" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9120,29 +8158,22 @@
       <c r="J132" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K132" s="13" t="n">
-        <v>28</v>
+      <c r="K132" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L132" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M132" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K132,". ",L132)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M132" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N132" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O132" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P132" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="Q132" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R132" s="12" t="n">
+      <c r="O132" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P132" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9177,29 +8208,22 @@
       <c r="J133" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K133" s="13" t="n">
-        <v>28</v>
+      <c r="K133" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L133" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M133" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K133,". ",L133)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M133" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N133" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O133" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P133" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="Q133" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R133" s="12" t="n">
+      <c r="O133" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P133" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9234,29 +8258,22 @@
       <c r="J134" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K134" s="13" t="n">
-        <v>28</v>
+      <c r="K134" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L134" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M134" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K134,". ",L134)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M134" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N134" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O134" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P134" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="Q134" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R134" s="12" t="n">
+      <c r="O134" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P134" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9291,29 +8308,22 @@
       <c r="J135" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K135" s="13" t="n">
-        <v>28</v>
+      <c r="K135" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L135" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M135" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K135,". ",L135)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M135" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N135" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O135" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P135" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="Q135" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="R135" s="12" t="n">
+      <c r="O135" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="P135" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9348,29 +8358,22 @@
       <c r="J136" s="13" t="n">
         <v>20.5</v>
       </c>
-      <c r="K136" s="13" t="n">
-        <v>28</v>
+      <c r="K136" s="12" t="s">
+        <v>237</v>
       </c>
       <c r="L136" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M136" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K136,". ",L136)</f>
-        <v>28. Para cada innovación señalada en la pregunta 23, indique: (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M136" s="13" t="n">
+        <v>20.5</v>
       </c>
       <c r="N136" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O136" s="13" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="P136" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="Q136" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R136" s="12" t="n">
+      <c r="O136" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P136" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9405,29 +8408,22 @@
       <c r="J137" s="10" t="n">
         <v>2.2</v>
       </c>
-      <c r="K137" s="10" t="n">
-        <v>29</v>
+      <c r="K137" s="9" t="s">
+        <v>249</v>
       </c>
       <c r="L137" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="M137" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K137,". ",L137)</f>
-        <v>29. Total de  funcionarios formados en innovación en 2021</v>
+        <v>20</v>
+      </c>
+      <c r="M137" s="10" t="n">
+        <v>2.2</v>
       </c>
       <c r="N137" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O137" s="10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P137" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="Q137" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R137" s="10" t="n">
+      <c r="O137" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P137" s="10" t="n">
         <v>2.2</v>
       </c>
     </row>
@@ -9462,29 +8458,22 @@
       <c r="J138" s="13" t="n">
         <v>2.2</v>
       </c>
-      <c r="K138" s="13" t="n">
-        <v>29</v>
-      </c>
-      <c r="L138" s="15" t="s">
+      <c r="K138" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="M138" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K138,". ",L138)</f>
-        <v>29. Total de  funcionarios formados en innovación en 2022</v>
+      <c r="L138" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M138" s="13" t="n">
+        <v>2.2</v>
       </c>
       <c r="N138" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O138" s="13" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="P138" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="Q138" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R138" s="12" t="n">
+      <c r="O138" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P138" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9519,29 +8508,22 @@
       <c r="J139" s="10" t="n">
         <v>2.3</v>
       </c>
-      <c r="K139" s="10" t="n">
-        <v>30</v>
-      </c>
-      <c r="L139" s="16" t="s">
+      <c r="K139" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="M139" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K139,". ",L139)</f>
-        <v>30. Total de  contratistas formados en innovación en 2021</v>
+      <c r="L139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M139" s="10" t="n">
+        <v>2.3</v>
       </c>
       <c r="N139" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O139" s="10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P139" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="Q139" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R139" s="10" t="n">
+      <c r="O139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P139" s="10" t="n">
         <v>2.3</v>
       </c>
     </row>
@@ -9576,29 +8558,22 @@
       <c r="J140" s="13" t="n">
         <v>2.3</v>
       </c>
-      <c r="K140" s="13" t="n">
-        <v>30</v>
-      </c>
-      <c r="L140" s="15" t="s">
+      <c r="K140" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="M140" s="13" t="str">
-        <f aca="false">_xlfn.CONCAT(K140,". ",L140)</f>
-        <v>30. Total de  contratistas formados en innovación en 2022</v>
+      <c r="L140" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M140" s="13" t="n">
+        <v>2.3</v>
       </c>
       <c r="N140" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O140" s="13" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="P140" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="Q140" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R140" s="13" t="n">
+      <c r="O140" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P140" s="13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9633,29 +8608,22 @@
       <c r="J141" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="K141" s="10" t="n">
-        <v>31</v>
+      <c r="K141" s="9" t="s">
+        <v>263</v>
       </c>
       <c r="L141" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="M141" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K141,". ",L141)</f>
-        <v>31. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M141" s="10" t="n">
+        <v>0</v>
       </c>
       <c r="N141" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O141" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="Q141" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R141" s="10" t="n">
+      <c r="O141" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P141" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9690,29 +8658,22 @@
       <c r="J142" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K142" s="13" t="n">
-        <v>31</v>
+      <c r="K142" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="L142" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="M142" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K142,". ",L142)</f>
-        <v>31. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M142" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N142" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O142" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P142" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="Q142" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R142" s="12" t="n">
+      <c r="O142" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P142" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9747,29 +8708,22 @@
       <c r="J143" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K143" s="13" t="n">
-        <v>31</v>
+      <c r="K143" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="L143" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="M143" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K143,". ",L143)</f>
-        <v>31. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M143" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N143" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O143" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="Q143" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R143" s="12" t="n">
+      <c r="O143" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P143" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9804,29 +8758,22 @@
       <c r="J144" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="K144" s="13" t="n">
-        <v>31</v>
+      <c r="K144" s="12" t="s">
+        <v>263</v>
       </c>
       <c r="L144" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="M144" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K144,". ",L144)</f>
-        <v>31. ¿Cuáles? Ingrese los detalles de cada uno de los acuerdos y/o actos administrativos de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M144" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="N144" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O144" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="Q144" s="12" t="s">
+      <c r="O144" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R144" s="12" t="n">
+      <c r="P144" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9861,29 +8808,22 @@
       <c r="J145" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="K145" s="10" t="n">
-        <v>32</v>
+      <c r="K145" s="9" t="s">
+        <v>270</v>
       </c>
       <c r="L145" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="M145" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K145,". ",L145)</f>
-        <v>32. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M145" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="N145" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O145" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="P145" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="Q145" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R145" s="10" t="n">
+      <c r="O145" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P145" s="10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9918,29 +8858,22 @@
       <c r="J146" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K146" s="13" t="n">
-        <v>32</v>
+      <c r="K146" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="L146" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="M146" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K146,". ",L146)</f>
-        <v>32. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M146" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N146" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O146" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P146" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="Q146" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R146" s="12" t="n">
+      <c r="O146" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P146" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9975,29 +8908,22 @@
       <c r="J147" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K147" s="13" t="n">
-        <v>32</v>
+      <c r="K147" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="L147" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="M147" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K147,". ",L147)</f>
-        <v>32. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M147" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N147" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O147" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P147" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="Q147" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R147" s="12" t="n">
+      <c r="O147" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P147" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10032,29 +8958,22 @@
       <c r="J148" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="K148" s="13" t="n">
-        <v>32</v>
+      <c r="K148" s="12" t="s">
+        <v>270</v>
       </c>
       <c r="L148" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="M148" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K148,". ",L148)</f>
-        <v>32. ¿Cuáles? Ingrese los detalles de cada uno de los enfoques / líneas / componentes / proyectos / programas o planes de su entidad relacionados con la gestión del conocimiento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M148" s="13" t="n">
+        <v>3</v>
       </c>
       <c r="N148" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O148" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P148" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="Q148" s="12" t="s">
+      <c r="O148" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R148" s="12" t="n">
+      <c r="P148" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10089,29 +9008,22 @@
       <c r="J149" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K149" s="10" t="n">
-        <v>33</v>
+      <c r="K149" s="9" t="s">
+        <v>278</v>
       </c>
       <c r="L149" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M149" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K149,". ",L149)</f>
-        <v>33. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M149" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N149" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O149" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P149" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="Q149" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R149" s="10" t="n">
+      <c r="O149" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P149" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10146,29 +9058,22 @@
       <c r="J150" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K150" s="13" t="n">
-        <v>33</v>
+      <c r="K150" s="12" t="s">
+        <v>278</v>
       </c>
       <c r="L150" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M150" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K150,". ",L150)</f>
-        <v>33. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M150" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N150" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O150" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P150" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="Q150" s="12" t="s">
+      <c r="O150" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R150" s="12" t="n">
+      <c r="P150" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10203,29 +9108,22 @@
       <c r="J151" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K151" s="10" t="n">
-        <v>34</v>
+      <c r="K151" s="9" t="s">
+        <v>283</v>
       </c>
       <c r="L151" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M151" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K151,". ",L151)</f>
-        <v>34. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M151" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N151" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O151" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P151" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q151" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R151" s="10" t="n">
+        <v>284</v>
+      </c>
+      <c r="O151" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P151" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10260,29 +9158,22 @@
       <c r="J152" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K152" s="13" t="n">
-        <v>34</v>
+      <c r="K152" s="12" t="s">
+        <v>283</v>
       </c>
       <c r="L152" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M152" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K152,". ",L152)</f>
-        <v>34. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M152" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N152" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O152" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P152" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q152" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O152" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R152" s="12" t="n">
+      <c r="P152" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10303,13 +9194,13 @@
         <v>6</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G153" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H153" s="8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I153" s="9" t="s">
         <v>20</v>
@@ -10317,29 +9208,22 @@
       <c r="J153" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K153" s="10" t="n">
-        <v>35</v>
+      <c r="K153" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="L153" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M153" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K153,". ",L153)</f>
-        <v>35. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M153" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N153" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O153" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P153" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q153" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R153" s="10" t="n">
+        <v>289</v>
+      </c>
+      <c r="O153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P153" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10360,13 +9244,13 @@
         <v>6</v>
       </c>
       <c r="F154" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G154" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H154" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I154" s="12" t="s">
         <v>20</v>
@@ -10374,29 +9258,22 @@
       <c r="J154" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K154" s="13" t="n">
-        <v>35</v>
+      <c r="K154" s="12" t="s">
+        <v>288</v>
       </c>
       <c r="L154" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M154" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K154,". ",L154)</f>
-        <v>35. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M154" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N154" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O154" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P154" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q154" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R154" s="12" t="n">
+        <v>290</v>
+      </c>
+      <c r="O154" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P154" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10417,13 +9294,13 @@
         <v>6</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G155" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H155" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I155" s="9" t="s">
         <v>20</v>
@@ -10431,29 +9308,22 @@
       <c r="J155" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K155" s="10" t="n">
-        <v>36</v>
+      <c r="K155" s="9" t="s">
+        <v>293</v>
       </c>
       <c r="L155" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M155" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K155,". ",L155)</f>
-        <v>36. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M155" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N155" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O155" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P155" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q155" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R155" s="10" t="n">
+        <v>294</v>
+      </c>
+      <c r="O155" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P155" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10474,13 +9344,13 @@
         <v>6</v>
       </c>
       <c r="F156" s="11" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G156" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H156" s="11" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="I156" s="12" t="s">
         <v>20</v>
@@ -10488,29 +9358,22 @@
       <c r="J156" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K156" s="13" t="n">
-        <v>36</v>
+      <c r="K156" s="12" t="s">
+        <v>293</v>
       </c>
       <c r="L156" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M156" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K156,". ",L156)</f>
-        <v>36. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M156" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N156" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O156" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P156" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q156" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="O156" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R156" s="12" t="n">
+      <c r="P156" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10531,13 +9394,13 @@
         <v>6</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G157" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H157" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I157" s="9" t="s">
         <v>20</v>
@@ -10545,29 +9408,22 @@
       <c r="J157" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K157" s="10" t="n">
-        <v>37</v>
+      <c r="K157" s="9" t="s">
+        <v>298</v>
       </c>
       <c r="L157" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M157" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K157,". ",L157)</f>
-        <v>37. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M157" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N157" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O157" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P157" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q157" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R157" s="10" t="n">
+        <v>299</v>
+      </c>
+      <c r="O157" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P157" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10588,13 +9444,13 @@
         <v>6</v>
       </c>
       <c r="F158" s="11" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="G158" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H158" s="11" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="I158" s="12" t="s">
         <v>20</v>
@@ -10602,29 +9458,22 @@
       <c r="J158" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K158" s="13" t="n">
-        <v>37</v>
+      <c r="K158" s="12" t="s">
+        <v>298</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M158" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K158,". ",L158)</f>
-        <v>37. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M158" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N158" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O158" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P158" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q158" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="O158" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R158" s="12" t="n">
+      <c r="P158" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10645,13 +9494,13 @@
         <v>6</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G159" s="8" t="n">
         <v>1</v>
       </c>
       <c r="H159" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I159" s="9" t="s">
         <v>20</v>
@@ -10659,29 +9508,22 @@
       <c r="J159" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K159" s="10" t="n">
-        <v>38</v>
+      <c r="K159" s="9" t="s">
+        <v>303</v>
       </c>
       <c r="L159" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M159" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K159,". ",L159)</f>
-        <v>38. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M159" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="N159" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O159" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P159" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q159" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R159" s="10" t="n">
+        <v>304</v>
+      </c>
+      <c r="O159" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P159" s="10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10702,13 +9544,13 @@
         <v>6</v>
       </c>
       <c r="F160" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G160" s="11" t="n">
         <v>1</v>
       </c>
       <c r="H160" s="11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="I160" s="12" t="s">
         <v>20</v>
@@ -10716,29 +9558,22 @@
       <c r="J160" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K160" s="13" t="n">
-        <v>38</v>
+      <c r="K160" s="12" t="s">
+        <v>303</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="M160" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K160,". ",L160)</f>
-        <v>38. Sobre la publicación y el uso dado a dicho documento. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M160" s="13" t="n">
+        <v>1</v>
       </c>
       <c r="N160" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O160" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P160" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q160" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="O160" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R160" s="12" t="n">
+      <c r="P160" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10753,19 +9588,19 @@
         <v>15</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E161" s="8" t="n">
         <v>6</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G161" s="8" t="n">
         <v>6</v>
       </c>
       <c r="H161" s="8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I161" s="9" t="s">
         <v>20</v>
@@ -10773,29 +9608,22 @@
       <c r="J161" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K161" s="10" t="n">
-        <v>39</v>
+      <c r="K161" s="9" t="s">
+        <v>309</v>
       </c>
       <c r="L161" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="M161" s="9" t="str">
-        <f aca="false">_xlfn.CONCAT(K161,". ",L161)</f>
-        <v>39. Sobre los mecanismos de monitoreo a las innovaciones. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M161" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="N161" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O161" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="P161" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q161" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="R161" s="10" t="n">
+        <v>310</v>
+      </c>
+      <c r="O161" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="P161" s="10" t="n">
         <v>6</v>
       </c>
     </row>
@@ -10810,19 +9638,19 @@
         <v>15</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E162" s="11" t="n">
         <v>6</v>
       </c>
       <c r="F162" s="11" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="G162" s="11" t="n">
         <v>6</v>
       </c>
       <c r="H162" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I162" s="12" t="s">
         <v>20</v>
@@ -10830,29 +9658,22 @@
       <c r="J162" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="K162" s="13" t="n">
-        <v>39</v>
+      <c r="K162" s="12" t="s">
+        <v>309</v>
       </c>
       <c r="L162" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="M162" s="12" t="str">
-        <f aca="false">_xlfn.CONCAT(K162,". ",L162)</f>
-        <v>39. Sobre los mecanismos de monitoreo a las innovaciones. (Añada tantas secciones como necesite con el botón "+" de abajo y detalle individualmente)</v>
+        <v>20</v>
+      </c>
+      <c r="M162" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="N162" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O162" s="13" t="n">
-        <v>6</v>
-      </c>
-      <c r="P162" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q162" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="O162" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="R162" s="12" t="n">
+      <c r="P162" s="12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10887,544 +9708,544 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>307</v>
+      <c r="E1" s="17" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
-        <v>308</v>
-      </c>
-      <c r="B2" s="20" t="s">
-        <v>309</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>311</v>
+      <c r="A2" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>316</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>313</v>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>318</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>316</v>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>321</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
-        <v>317</v>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
+        <v>322</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>319</v>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>324</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>320</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18" t="s">
+        <v>325</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>323</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>328</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
-        <v>324</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18" t="s">
+        <v>329</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
-        <v>325</v>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
+        <v>330</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
-        <v>326</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>327</v>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>332</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
-        <v>328</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
+        <v>333</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>329</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18" t="s">
+        <v>334</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>331</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>332</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>337</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>336</v>
+      <c r="A15" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>341</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>338</v>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>343</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
-        <v>339</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>340</v>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18" t="s">
+        <v>344</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>345</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
-        <v>341</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>342</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>346</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>347</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
-        <v>343</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18" t="s">
+        <v>348</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
-        <v>344</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>345</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>346</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>351</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
-        <v>347</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>348</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>353</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
-        <v>349</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>350</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18" t="s">
+        <v>354</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>355</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
-        <v>351</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18" t="s">
+        <v>356</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20" t="s">
-        <v>352</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>353</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>354</v>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>359</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20" t="s">
-        <v>355</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>356</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>357</v>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>362</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20" t="s">
-        <v>358</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>359</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>360</v>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>365</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20" t="s">
-        <v>361</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>362</v>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>367</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20" t="s">
-        <v>363</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>364</v>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>369</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>366</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>368</v>
+      <c r="A29" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>373</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20" t="s">
-        <v>369</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>370</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>371</v>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18" t="s">
+        <v>374</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>376</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
-        <v>372</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>373</v>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D31" s="18" t="s">
+        <v>378</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
-        <v>374</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>375</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>376</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>377</v>
+      <c r="A32" s="18" t="s">
+        <v>379</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>380</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>382</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>379</v>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18" t="s">
+        <v>383</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>384</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>382</v>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>387</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>384</v>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>389</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20" t="s">
-        <v>385</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>386</v>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>391</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
-        <v>387</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>388</v>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>393</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
-        <v>389</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>390</v>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>395</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
-        <v>391</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>392</v>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>397</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>395</v>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>400</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>23</v>

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -1552,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:T162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1569,8 +1569,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="41.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="37.74"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="17" min="15" style="1" width="9.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16382" min="21" style="1" width="9.63"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="9.63"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="21" style="1" width="9.63"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3324,8 +3323,8 @@
       </c>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
-      <c r="S35" s="0"/>
-      <c r="T35" s="0"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
     </row>
     <row r="36" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="n">

--- a/preguntas/estructura/2023.xlsx
+++ b/preguntas/estructura/2023.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Humano!$A$1:$D$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Maquina!$B$1:$H$207</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Maquina!$B$1:$H$226</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2054" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="425">
   <si>
     <t xml:space="preserve">T</t>
   </si>
@@ -859,13 +859,13 @@
     <t xml:space="preserve">29. Total de  funcionarios formados en innovación en 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">29. Pregunta 29.1. Entre el 01 de enero de 2021 y el 31 de diciembre de 2021, ¿Cuántos funcionarios recibieron formación en temas de innovación?</t>
+    <t xml:space="preserve">29. Entre el 01 de enero de 2021 y el 31 de diciembre de 2021, ¿Cuántos funcionarios recibieron formación en temas de innovación?</t>
   </si>
   <si>
     <t xml:space="preserve">29. Total de  funcionarios formados en innovación en 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">29. Pregunta 29.1. Entre el 01 de enero de 2022 y el 31 de diciembre de 2022, ¿Cuántos funcionarios recibieron formación en temas de innovación?</t>
+    <t xml:space="preserve">29. Entre el 01 de enero de 2022 y el 31 de diciembre de 2022, ¿Cuántos funcionarios recibieron formación en temas de innovación?</t>
   </si>
   <si>
     <t xml:space="preserve">Indicador 22. Porcentaje de contratistas formados a partir de procesos de generación de capacidades en innovación.</t>
@@ -877,13 +877,13 @@
     <t xml:space="preserve">30. Total de  contratistas formados en innovación en 2021</t>
   </si>
   <si>
-    <t xml:space="preserve">30. **Pregunta 30.1. Entre el 01 de enero de 2021 y el 31 de diciembre de 2021, ¿Cuántos contratistas recibieron formación en temas de innovación? Discrimine por año.**</t>
+    <t xml:space="preserve">30. Entre el 01 de enero de 2021 y el 31 de diciembre de 2021, ¿Cuántos contratistas recibieron formación en temas de innovación? Discrimine por año.</t>
   </si>
   <si>
     <t xml:space="preserve">30. Total de  contratistas formados en innovación en 2022</t>
   </si>
   <si>
-    <t xml:space="preserve">30. **Pregunta 30.1. Entre el 01 de enero de 2022 y el 31 de diciembre de 2022, ¿Cuántos contratistas recibieron formación en temas de innovación? Discrimine por año.**</t>
+    <t xml:space="preserve">30. Entre el 01 de enero de 2022 y el 31 de diciembre de 2022, ¿Cuántos contratistas recibieron formación en temas de innovación? Discrimine por año.</t>
   </si>
   <si>
     <t xml:space="preserve">Componente 4. Gestión del conocimiento</t>
@@ -1419,7 +1419,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1484,7 +1484,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1494,10 +1494,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1631,10 +1627,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:X209"/>
+  <dimension ref="A1:X1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N89" activeCellId="0" sqref="N89"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T4" activeCellId="0" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6328125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1764,7 +1760,8 @@
       <c r="M2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="11" t="b">
+      <c r="N2" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O2" s="9" t="s">
@@ -1817,7 +1814,8 @@
       <c r="M3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="11" t="b">
+      <c r="N3" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O3" s="13" t="s">
@@ -1870,7 +1868,8 @@
       <c r="M4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="11" t="b">
+      <c r="N4" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O4" s="13" t="s">
@@ -1923,7 +1922,8 @@
       <c r="M5" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="11" t="b">
+      <c r="N5" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O5" s="13" t="s">
@@ -1970,7 +1970,8 @@
       <c r="K6" s="13"/>
       <c r="L6" s="14"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="11" t="b">
+      <c r="N6" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O6" s="13"/>
@@ -2019,7 +2020,8 @@
       <c r="M7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="N7" s="11" t="b">
+      <c r="N7" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O7" s="9" t="s">
@@ -2072,7 +2074,8 @@
       <c r="M8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="11" t="b">
+      <c r="N8" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O8" s="13" t="s">
@@ -2125,7 +2128,8 @@
       <c r="M9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="11" t="b">
+      <c r="N9" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O9" s="13" t="s">
@@ -2178,7 +2182,8 @@
       <c r="M10" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="11" t="b">
+      <c r="N10" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O10" s="13" t="s">
@@ -2225,7 +2230,8 @@
       <c r="K11" s="13"/>
       <c r="L11" s="14"/>
       <c r="M11" s="13"/>
-      <c r="N11" s="11" t="b">
+      <c r="N11" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O11" s="13"/>
@@ -2274,7 +2280,8 @@
       <c r="M12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="N12" s="11" t="b">
+      <c r="N12" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O12" s="9" t="s">
@@ -2327,7 +2334,8 @@
       <c r="M13" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N13" s="11" t="b">
+      <c r="N13" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O13" s="13" t="s">
@@ -2380,7 +2388,8 @@
       <c r="M14" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="11" t="b">
+      <c r="N14" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O14" s="13" t="s">
@@ -2433,7 +2442,8 @@
       <c r="M15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="N15" s="11" t="b">
+      <c r="N15" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O15" s="13" t="s">
@@ -2486,7 +2496,8 @@
       <c r="M16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="11" t="b">
+      <c r="N16" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O16" s="9" t="s">
@@ -2539,7 +2550,8 @@
       <c r="M17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N17" s="11" t="b">
+      <c r="N17" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O17" s="13" t="s">
@@ -2592,7 +2604,8 @@
       <c r="M18" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="11" t="b">
+      <c r="N18" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O18" s="13" t="s">
@@ -2645,7 +2658,8 @@
       <c r="M19" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="N19" s="11" t="b">
+      <c r="N19" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O19" s="13" t="s">
@@ -2698,7 +2712,8 @@
       <c r="M20" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="N20" s="11" t="b">
+      <c r="N20" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O20" s="9" t="s">
@@ -2751,7 +2766,8 @@
       <c r="M21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N21" s="11" t="b">
+      <c r="N21" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O21" s="13" t="s">
@@ -2804,7 +2820,8 @@
       <c r="M22" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="11" t="b">
+      <c r="N22" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O22" s="13" t="s">
@@ -2857,7 +2874,8 @@
       <c r="M23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N23" s="11" t="b">
+      <c r="N23" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O23" s="13" t="s">
@@ -2910,7 +2928,8 @@
       <c r="M24" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="N24" s="11" t="b">
+      <c r="N24" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O24" s="9" t="s">
@@ -2963,7 +2982,8 @@
       <c r="M25" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="11" t="b">
+      <c r="N25" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O25" s="13" t="s">
@@ -3016,7 +3036,8 @@
       <c r="M26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="N26" s="11" t="b">
+      <c r="N26" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O26" s="13" t="s">
@@ -3069,7 +3090,8 @@
       <c r="M27" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="11" t="b">
+      <c r="N27" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O27" s="13" t="s">
@@ -3122,7 +3144,8 @@
       <c r="M28" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="N28" s="11" t="b">
+      <c r="N28" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O28" s="9" t="s">
@@ -3175,7 +3198,8 @@
       <c r="M29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N29" s="11" t="b">
+      <c r="N29" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O29" s="13" t="s">
@@ -3228,7 +3252,8 @@
       <c r="M30" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="11" t="b">
+      <c r="N30" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O30" s="13" t="s">
@@ -3281,7 +3306,8 @@
       <c r="M31" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="N31" s="11" t="b">
+      <c r="N31" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O31" s="13" t="s">
@@ -3334,7 +3360,8 @@
       <c r="M32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="N32" s="11" t="b">
+      <c r="N32" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O32" s="9" t="s">
@@ -3387,7 +3414,8 @@
       <c r="M33" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N33" s="11" t="b">
+      <c r="N33" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O33" s="13" t="s">
@@ -3440,7 +3468,8 @@
       <c r="M34" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="N34" s="11" t="b">
+      <c r="N34" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O34" s="13" t="s">
@@ -3493,7 +3522,8 @@
       <c r="M35" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="N35" s="11" t="b">
+      <c r="N35" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O35" s="13" t="s">
@@ -3546,7 +3576,8 @@
       <c r="M36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="N36" s="11" t="b">
+      <c r="N36" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O36" s="9" t="s">
@@ -3599,7 +3630,8 @@
       <c r="M37" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N37" s="11" t="b">
+      <c r="N37" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O37" s="15" t="s">
@@ -3617,7 +3649,7 @@
       <c r="U37" s="1"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
-      <c r="X37" s="0"/>
+      <c r="X37" s="1"/>
     </row>
     <row r="38" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="n">
@@ -3659,7 +3691,8 @@
       <c r="M38" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="N38" s="11" t="b">
+      <c r="N38" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O38" s="13" t="s">
@@ -3712,7 +3745,8 @@
       <c r="M39" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="N39" s="11" t="b">
+      <c r="N39" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O39" s="13" t="s">
@@ -3765,7 +3799,8 @@
       <c r="M40" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="N40" s="11" t="b">
+      <c r="N40" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O40" s="9" t="s">
@@ -3818,7 +3853,8 @@
       <c r="M41" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N41" s="11" t="b">
+      <c r="N41" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O41" s="13" t="s">
@@ -3871,7 +3907,8 @@
       <c r="M42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="N42" s="11" t="b">
+      <c r="N42" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O42" s="13" t="s">
@@ -3924,7 +3961,8 @@
       <c r="M43" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="N43" s="11" t="b">
+      <c r="N43" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O43" s="13" t="s">
@@ -3977,7 +4015,8 @@
       <c r="M44" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="N44" s="11" t="b">
+      <c r="N44" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O44" s="9" t="s">
@@ -4030,7 +4069,8 @@
       <c r="M45" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="N45" s="11" t="b">
+      <c r="N45" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O45" s="13" t="s">
@@ -4083,7 +4123,8 @@
       <c r="M46" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="N46" s="11" t="b">
+      <c r="N46" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O46" s="13" t="s">
@@ -4136,7 +4177,8 @@
       <c r="M47" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="N47" s="11" t="b">
+      <c r="N47" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O47" s="13" t="s">
@@ -4189,7 +4231,8 @@
       <c r="M48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="N48" s="11" t="b">
+      <c r="N48" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O48" s="9" t="s">
@@ -4242,7 +4285,8 @@
       <c r="M49" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="N49" s="11" t="b">
+      <c r="N49" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O49" s="13" t="s">
@@ -4295,7 +4339,8 @@
       <c r="M50" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="N50" s="11" t="b">
+      <c r="N50" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O50" s="13" t="s">
@@ -4348,7 +4393,8 @@
       <c r="M51" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="N51" s="11" t="b">
+      <c r="N51" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O51" s="13" t="s">
@@ -4401,7 +4447,8 @@
       <c r="M52" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="N52" s="11" t="b">
+      <c r="N52" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O52" s="9" t="s">
@@ -4454,7 +4501,8 @@
       <c r="M53" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="N53" s="11" t="b">
+      <c r="N53" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O53" s="13" t="s">
@@ -4507,7 +4555,8 @@
       <c r="M54" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="N54" s="11" t="b">
+      <c r="N54" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O54" s="13" t="s">
@@ -4560,7 +4609,8 @@
       <c r="M55" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="N55" s="11" t="b">
+      <c r="N55" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O55" s="13" t="s">
@@ -4607,7 +4657,8 @@
       <c r="K56" s="13"/>
       <c r="L56" s="14"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="11" t="b">
+      <c r="N56" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O56" s="13"/>
@@ -4656,7 +4707,8 @@
       <c r="M57" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="N57" s="11" t="b">
+      <c r="N57" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O57" s="9" t="s">
@@ -4709,7 +4761,8 @@
       <c r="M58" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N58" s="11" t="b">
+      <c r="N58" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O58" s="13" t="s">
@@ -4767,7 +4820,8 @@
       <c r="M59" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N59" s="11" t="b">
+      <c r="N59" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O59" s="13" t="s">
@@ -4825,7 +4879,8 @@
       <c r="M60" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N60" s="11" t="b">
+      <c r="N60" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O60" s="13" t="s">
@@ -4883,7 +4938,8 @@
       <c r="M61" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N61" s="11" t="b">
+      <c r="N61" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O61" s="13" t="s">
@@ -4941,7 +4997,8 @@
       <c r="M62" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="N62" s="11" t="b">
+      <c r="N62" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O62" s="13" t="s">
@@ -4999,7 +5056,8 @@
       <c r="M63" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="N63" s="11" t="b">
+      <c r="N63" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O63" s="13" t="s">
@@ -5052,7 +5110,8 @@
       <c r="M64" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N64" s="11" t="b">
+      <c r="N64" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O64" s="13" t="s">
@@ -5110,7 +5169,8 @@
       <c r="M65" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="N65" s="11" t="b">
+      <c r="N65" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O65" s="13" t="s">
@@ -5168,7 +5228,8 @@
       <c r="M66" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="N66" s="11" t="b">
+      <c r="N66" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O66" s="13" t="s">
@@ -5215,7 +5276,8 @@
       <c r="K67" s="13"/>
       <c r="L67" s="14"/>
       <c r="M67" s="13"/>
-      <c r="N67" s="11" t="b">
+      <c r="N67" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O67" s="13"/>
@@ -5264,7 +5326,8 @@
       <c r="M68" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="N68" s="11" t="b">
+      <c r="N68" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O68" s="9" t="s">
@@ -5317,7 +5380,8 @@
       <c r="M69" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N69" s="11" t="b">
+      <c r="N69" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O69" s="13" t="s">
@@ -5375,7 +5439,8 @@
       <c r="M70" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N70" s="11" t="b">
+      <c r="N70" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O70" s="13" t="s">
@@ -5433,7 +5498,8 @@
       <c r="M71" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N71" s="11" t="b">
+      <c r="N71" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O71" s="13" t="s">
@@ -5491,7 +5557,8 @@
       <c r="M72" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N72" s="11" t="b">
+      <c r="N72" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O72" s="13" t="s">
@@ -5549,7 +5616,8 @@
       <c r="M73" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="N73" s="11" t="b">
+      <c r="N73" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O73" s="13" t="s">
@@ -5607,7 +5675,8 @@
       <c r="M74" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="N74" s="11" t="b">
+      <c r="N74" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O74" s="13" t="s">
@@ -5660,7 +5729,8 @@
       <c r="M75" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="N75" s="11" t="b">
+      <c r="N75" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O75" s="13" t="s">
@@ -5718,7 +5788,8 @@
       <c r="M76" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="N76" s="11" t="b">
+      <c r="N76" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O76" s="13" t="s">
@@ -5776,7 +5847,8 @@
       <c r="M77" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="N77" s="11" t="b">
+      <c r="N77" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O77" s="13" t="s">
@@ -5823,7 +5895,8 @@
       <c r="K78" s="13"/>
       <c r="L78" s="14"/>
       <c r="M78" s="13"/>
-      <c r="N78" s="11" t="b">
+      <c r="N78" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O78" s="13"/>
@@ -5872,7 +5945,8 @@
       <c r="M79" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="N79" s="11" t="b">
+      <c r="N79" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O79" s="9" t="s">
@@ -5925,7 +5999,8 @@
       <c r="M80" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N80" s="11" t="b">
+      <c r="N80" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O80" s="13" t="s">
@@ -5983,7 +6058,8 @@
       <c r="M81" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N81" s="11" t="b">
+      <c r="N81" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O81" s="13" t="s">
@@ -6041,7 +6117,8 @@
       <c r="M82" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N82" s="11" t="b">
+      <c r="N82" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O82" s="13" t="s">
@@ -6099,7 +6176,8 @@
       <c r="M83" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N83" s="11" t="b">
+      <c r="N83" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O83" s="13" t="s">
@@ -6157,7 +6235,8 @@
       <c r="M84" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="N84" s="11" t="b">
+      <c r="N84" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O84" s="13" t="s">
@@ -6215,7 +6294,8 @@
       <c r="M85" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="N85" s="11" t="b">
+      <c r="N85" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O85" s="13" t="s">
@@ -6268,7 +6348,8 @@
       <c r="M86" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N86" s="11" t="b">
+      <c r="N86" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O86" s="13" t="s">
@@ -6326,7 +6407,8 @@
       <c r="M87" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="N87" s="11" t="b">
+      <c r="N87" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O87" s="13" t="s">
@@ -6384,7 +6466,8 @@
       <c r="M88" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="N88" s="11" t="b">
+      <c r="N88" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O88" s="13" t="s">
@@ -6431,7 +6514,8 @@
       <c r="K89" s="13"/>
       <c r="L89" s="14"/>
       <c r="M89" s="13"/>
-      <c r="N89" s="11" t="b">
+      <c r="N89" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O89" s="13"/>
@@ -6480,7 +6564,8 @@
       <c r="M90" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N90" s="11" t="b">
+      <c r="N90" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O90" s="9" t="s">
@@ -6533,7 +6618,8 @@
       <c r="M91" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="N91" s="11" t="b">
+      <c r="N91" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O91" s="13" t="s">
@@ -6591,7 +6677,8 @@
       <c r="M92" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="N92" s="11" t="b">
+      <c r="N92" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O92" s="13" t="s">
@@ -6649,7 +6736,8 @@
       <c r="M93" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="N93" s="11" t="b">
+      <c r="N93" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O93" s="13" t="s">
@@ -6707,7 +6795,8 @@
       <c r="M94" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="N94" s="11" t="b">
+      <c r="N94" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O94" s="9" t="s">
@@ -6760,7 +6849,8 @@
       <c r="M95" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N95" s="11" t="b">
+      <c r="N95" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O95" s="13" t="s">
@@ -6818,7 +6908,8 @@
       <c r="M96" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N96" s="11" t="b">
+      <c r="N96" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O96" s="13" t="s">
@@ -6876,7 +6967,8 @@
       <c r="M97" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="N97" s="11" t="b">
+      <c r="N97" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O97" s="13" t="s">
@@ -6934,7 +7026,8 @@
       <c r="M98" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="N98" s="11" t="b">
+      <c r="N98" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O98" s="9" t="s">
@@ -6987,7 +7080,8 @@
       <c r="M99" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="N99" s="11" t="b">
+      <c r="N99" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O99" s="13" t="s">
@@ -7045,7 +7139,8 @@
       <c r="M100" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="N100" s="11" t="b">
+      <c r="N100" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O100" s="13" t="s">
@@ -7103,7 +7198,8 @@
       <c r="M101" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="N101" s="11" t="b">
+      <c r="N101" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O101" s="13" t="s">
@@ -7161,7 +7257,8 @@
       <c r="M102" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="N102" s="11" t="b">
+      <c r="N102" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O102" s="13" t="s">
@@ -7219,7 +7316,8 @@
       <c r="M103" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="N103" s="11" t="b">
+      <c r="N103" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O103" s="13" t="s">
@@ -7277,7 +7375,8 @@
       <c r="M104" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="N104" s="11" t="b">
+      <c r="N104" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O104" s="13" t="s">
@@ -7330,7 +7429,8 @@
       <c r="M105" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N105" s="11" t="b">
+      <c r="N105" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O105" s="13" t="s">
@@ -7388,7 +7488,8 @@
       <c r="M106" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="N106" s="11" t="b">
+      <c r="N106" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O106" s="13" t="s">
@@ -7446,7 +7547,8 @@
       <c r="M107" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="N107" s="11" t="b">
+      <c r="N107" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O107" s="13" t="s">
@@ -7493,7 +7595,8 @@
       <c r="K108" s="13"/>
       <c r="L108" s="14"/>
       <c r="M108" s="13"/>
-      <c r="N108" s="11" t="b">
+      <c r="N108" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O108" s="13"/>
@@ -7542,7 +7645,8 @@
       <c r="M109" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="N109" s="11" t="b">
+      <c r="N109" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O109" s="9" t="s">
@@ -7595,7 +7699,8 @@
       <c r="M110" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N110" s="11" t="b">
+      <c r="N110" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O110" s="13" t="s">
@@ -7653,7 +7758,8 @@
       <c r="M111" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N111" s="11" t="b">
+      <c r="N111" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O111" s="13" t="s">
@@ -7711,7 +7817,8 @@
       <c r="M112" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N112" s="11" t="b">
+      <c r="N112" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O112" s="13" t="s">
@@ -7769,7 +7876,8 @@
       <c r="M113" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N113" s="11" t="b">
+      <c r="N113" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O113" s="13" t="s">
@@ -7827,7 +7935,8 @@
       <c r="M114" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="N114" s="11" t="b">
+      <c r="N114" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O114" s="13" t="s">
@@ -7885,7 +7994,8 @@
       <c r="M115" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="N115" s="11" t="b">
+      <c r="N115" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O115" s="13" t="s">
@@ -7938,7 +8048,8 @@
       <c r="M116" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="N116" s="11" t="b">
+      <c r="N116" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O116" s="13" t="s">
@@ -7996,7 +8107,8 @@
       <c r="M117" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="N117" s="11" t="b">
+      <c r="N117" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O117" s="13" t="s">
@@ -8054,7 +8166,8 @@
       <c r="M118" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="N118" s="11" t="b">
+      <c r="N118" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O118" s="13" t="s">
@@ -8101,7 +8214,8 @@
       <c r="K119" s="13"/>
       <c r="L119" s="14"/>
       <c r="M119" s="13"/>
-      <c r="N119" s="11" t="b">
+      <c r="N119" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O119" s="13"/>
@@ -8150,7 +8264,8 @@
       <c r="M120" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="N120" s="11" t="b">
+      <c r="N120" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O120" s="9" t="s">
@@ -8203,7 +8318,8 @@
       <c r="M121" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N121" s="11" t="b">
+      <c r="N121" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O121" s="13" t="s">
@@ -8261,7 +8377,8 @@
       <c r="M122" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N122" s="11" t="b">
+      <c r="N122" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O122" s="13" t="s">
@@ -8319,7 +8436,8 @@
       <c r="M123" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="N123" s="11" t="b">
+      <c r="N123" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O123" s="13" t="s">
@@ -8377,7 +8495,8 @@
       <c r="M124" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="N124" s="11" t="b">
+      <c r="N124" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O124" s="9" t="s">
@@ -8430,7 +8549,8 @@
       <c r="M125" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="N125" s="11" t="b">
+      <c r="N125" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O125" s="13" t="s">
@@ -8488,7 +8608,8 @@
       <c r="M126" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="N126" s="11" t="b">
+      <c r="N126" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O126" s="13" t="s">
@@ -8546,7 +8667,8 @@
       <c r="M127" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="N127" s="11" t="b">
+      <c r="N127" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O127" s="13" t="s">
@@ -8604,7 +8726,8 @@
       <c r="M128" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="N128" s="11" t="b">
+      <c r="N128" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O128" s="9" t="s">
@@ -8657,7 +8780,8 @@
       <c r="M129" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="N129" s="11" t="b">
+      <c r="N129" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O129" s="13" t="s">
@@ -8710,7 +8834,8 @@
       <c r="M130" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="N130" s="11" t="b">
+      <c r="N130" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O130" s="13" t="s">
@@ -8763,7 +8888,8 @@
       <c r="M131" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N131" s="11" t="b">
+      <c r="N131" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O131" s="13" t="s">
@@ -8821,7 +8947,8 @@
       <c r="M132" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N132" s="11" t="b">
+      <c r="N132" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O132" s="13" t="s">
@@ -8879,7 +9006,8 @@
       <c r="M133" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="N133" s="11" t="b">
+      <c r="N133" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O133" s="13" t="s">
@@ -8937,7 +9065,8 @@
       <c r="M134" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="N134" s="11" t="b">
+      <c r="N134" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O134" s="13" t="s">
@@ -8995,7 +9124,8 @@
       <c r="M135" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="N135" s="11" t="b">
+      <c r="N135" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O135" s="13" t="s">
@@ -9053,7 +9183,8 @@
       <c r="M136" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="N136" s="11" t="b">
+      <c r="N136" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O136" s="13" t="s">
@@ -9111,7 +9242,8 @@
       <c r="M137" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="N137" s="11" t="b">
+      <c r="N137" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O137" s="13" t="s">
@@ -9169,7 +9301,8 @@
       <c r="M138" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="N138" s="11" t="b">
+      <c r="N138" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O138" s="13" t="s">
@@ -9227,7 +9360,8 @@
       <c r="M139" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="N139" s="11" t="b">
+      <c r="N139" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O139" s="13" t="s">
@@ -9274,7 +9408,8 @@
       <c r="K140" s="13"/>
       <c r="L140" s="14"/>
       <c r="M140" s="13"/>
-      <c r="N140" s="11" t="b">
+      <c r="N140" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O140" s="13"/>
@@ -9323,7 +9458,8 @@
       <c r="M141" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="N141" s="11" t="b">
+      <c r="N141" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O141" s="9" t="s">
@@ -9376,7 +9512,8 @@
       <c r="M142" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="N142" s="11" t="b">
+      <c r="N142" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O142" s="13" t="s">
@@ -9429,7 +9566,8 @@
       <c r="M143" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="N143" s="11" t="b">
+      <c r="N143" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O143" s="13" t="s">
@@ -9482,7 +9620,8 @@
       <c r="M144" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="N144" s="11" t="b">
+      <c r="N144" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O144" s="13" t="s">
@@ -9535,7 +9674,8 @@
       <c r="M145" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="N145" s="11" t="b">
+      <c r="N145" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O145" s="13" t="s">
@@ -9588,7 +9728,8 @@
       <c r="M146" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="N146" s="11" t="b">
+      <c r="N146" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O146" s="9" t="s">
@@ -9641,7 +9782,8 @@
       <c r="M147" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="N147" s="11" t="b">
+      <c r="N147" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O147" s="13" t="s">
@@ -9694,7 +9836,8 @@
       <c r="M148" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="N148" s="11" t="b">
+      <c r="N148" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O148" s="13" t="s">
@@ -9747,7 +9890,8 @@
       <c r="M149" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="N149" s="11" t="b">
+      <c r="N149" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O149" s="13" t="s">
@@ -9800,7 +9944,8 @@
       <c r="M150" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="N150" s="11" t="b">
+      <c r="N150" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O150" s="13" t="s">
@@ -9853,7 +9998,8 @@
       <c r="M151" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="N151" s="11" t="b">
+      <c r="N151" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O151" s="9" t="s">
@@ -9906,7 +10052,8 @@
       <c r="M152" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="N152" s="11" t="b">
+      <c r="N152" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O152" s="13" t="s">
@@ -9959,7 +10106,8 @@
       <c r="M153" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="N153" s="11" t="b">
+      <c r="N153" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O153" s="13" t="s">
@@ -10012,7 +10160,8 @@
       <c r="M154" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="N154" s="11" t="b">
+      <c r="N154" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O154" s="13" t="s">
@@ -10065,7 +10214,8 @@
       <c r="M155" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="N155" s="11" t="b">
+      <c r="N155" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O155" s="13" t="s">
@@ -10118,7 +10268,8 @@
       <c r="M156" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="N156" s="11" t="b">
+      <c r="N156" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O156" s="9" t="s">
@@ -10171,7 +10322,8 @@
       <c r="M157" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="N157" s="11" t="b">
+      <c r="N157" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O157" s="13" t="s">
@@ -10224,7 +10376,8 @@
       <c r="M158" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="N158" s="11" t="b">
+      <c r="N158" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O158" s="13" t="s">
@@ -10277,7 +10430,8 @@
       <c r="M159" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="N159" s="11" t="b">
+      <c r="N159" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O159" s="13" t="s">
@@ -10330,7 +10484,8 @@
       <c r="M160" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="N160" s="11" t="b">
+      <c r="N160" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O160" s="13" t="s">
@@ -10383,7 +10538,8 @@
       <c r="M161" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="N161" s="11" t="b">
+      <c r="N161" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O161" s="9" t="s">
@@ -10436,7 +10592,8 @@
       <c r="M162" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="N162" s="11" t="b">
+      <c r="N162" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O162" s="13" t="s">
@@ -10489,7 +10646,8 @@
       <c r="M163" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="N163" s="11" t="b">
+      <c r="N163" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O163" s="13" t="s">
@@ -10542,7 +10700,8 @@
       <c r="M164" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="N164" s="11" t="b">
+      <c r="N164" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O164" s="13" t="s">
@@ -10595,7 +10754,8 @@
       <c r="M165" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="N165" s="11" t="b">
+      <c r="N165" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O165" s="13" t="s">
@@ -10648,7 +10808,8 @@
       <c r="M166" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="N166" s="11" t="b">
+      <c r="N166" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O166" s="9" t="s">
@@ -10701,7 +10862,8 @@
       <c r="M167" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="N167" s="11" t="b">
+      <c r="N167" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O167" s="13" t="s">
@@ -10754,7 +10916,8 @@
       <c r="M168" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="N168" s="11" t="b">
+      <c r="N168" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O168" s="13" t="s">
@@ -10764,6 +10927,9 @@
         <v>0</v>
       </c>
       <c r="Q168" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T168" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -10771,56 +10937,60 @@
       <c r="A169" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B169" s="8" t="s">
+      <c r="B169" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C169" s="8" t="n">
+      <c r="C169" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="D169" s="8" t="s">
+      <c r="D169" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E169" s="8" t="n">
+      <c r="E169" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F169" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G169" s="8" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H169" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="I169" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J169" s="10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K169" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="L169" s="10" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M169" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="N169" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O169" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P169" s="10" t="n">
-        <v>1.1</v>
+      <c r="F169" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G169" s="12" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H169" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="I169" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J169" s="14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K169" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="L169" s="14" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M169" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="N169" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O169" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P169" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q169" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T169" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="8" t="n">
         <v>2023</v>
       </c>
@@ -10837,149 +11007,140 @@
         <v>5</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G170" s="12" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I170" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J170" s="14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="K170" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="L170" s="14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="M170" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="N170" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O170" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P170" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K170" s="13"/>
+      <c r="L170" s="14"/>
+      <c r="M170" s="13"/>
+      <c r="N170" s="11"/>
+      <c r="O170" s="13"/>
+      <c r="P170" s="13"/>
       <c r="Q170" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="T170" s="16"/>
     </row>
     <row r="171" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C171" s="12" t="n">
+      <c r="C171" s="8" t="n">
         <v>35</v>
       </c>
-      <c r="D171" s="12" t="s">
+      <c r="D171" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E171" s="12" t="n">
+      <c r="E171" s="8" t="n">
         <v>5</v>
       </c>
-      <c r="F171" s="12" t="s">
+      <c r="F171" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G171" s="12" t="n">
+      <c r="G171" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="H171" s="12" t="s">
+      <c r="H171" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="I171" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J171" s="14" t="n">
+      <c r="I171" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J171" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="K171" s="13" t="s">
+      <c r="K171" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="L171" s="14" t="n">
+      <c r="L171" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="M171" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="N171" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O171" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P171" s="13" t="n">
-        <v>0</v>
+      <c r="M171" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="N171" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O171" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P171" s="10" t="n">
+        <v>1.1</v>
       </c>
       <c r="Q171" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C172" s="8" t="n">
+      <c r="C172" s="12" t="n">
         <v>35</v>
       </c>
-      <c r="D172" s="8" t="s">
+      <c r="D172" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="E172" s="8" t="n">
+      <c r="E172" s="12" t="n">
         <v>5</v>
       </c>
-      <c r="F172" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G172" s="8" t="n">
+      <c r="F172" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="G172" s="12" t="n">
         <v>1.1</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I172" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J172" s="10" t="n">
+      <c r="H172" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I172" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J172" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="K172" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="L172" s="10" t="n">
+      <c r="K172" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="L172" s="14" t="n">
         <v>1.1</v>
       </c>
-      <c r="M172" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="N172" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O172" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P172" s="10" t="n">
-        <v>1.1</v>
+      <c r="M172" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="N172" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O172" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P172" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q172" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="8" t="n">
         <v>2023</v>
       </c>
@@ -10996,13 +11157,13 @@
         <v>5</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G173" s="12" t="n">
         <v>1.1</v>
       </c>
       <c r="H173" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I173" s="13" t="s">
         <v>22</v>
@@ -11011,19 +11172,20 @@
         <v>1.1</v>
       </c>
       <c r="K173" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L173" s="14" t="n">
         <v>1.1</v>
       </c>
       <c r="M173" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="N173" s="11" t="b">
+        <v>249</v>
+      </c>
+      <c r="N173" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O173" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P173" s="13" t="n">
         <v>0</v>
@@ -11031,8 +11193,11 @@
       <c r="Q173" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T173" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="8" t="n">
         <v>2023</v>
       </c>
@@ -11049,13 +11214,13 @@
         <v>5</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G174" s="12" t="n">
         <v>1.1</v>
       </c>
       <c r="H174" s="12" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I174" s="13" t="s">
         <v>22</v>
@@ -11064,19 +11229,20 @@
         <v>1.1</v>
       </c>
       <c r="K174" s="13" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="L174" s="14" t="n">
         <v>1.1</v>
       </c>
       <c r="M174" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="N174" s="11" t="b">
+        <v>249</v>
+      </c>
+      <c r="N174" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O174" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P174" s="13" t="n">
         <v>0</v>
@@ -11084,8 +11250,11 @@
       <c r="Q174" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T174" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="8" t="n">
         <v>2023</v>
       </c>
@@ -11102,242 +11271,235 @@
         <v>5</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G175" s="12" t="n">
         <v>1.1</v>
       </c>
       <c r="H175" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="I175" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J175" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" s="13"/>
+      <c r="L175" s="14"/>
+      <c r="M175" s="13"/>
+      <c r="N175" s="11"/>
+      <c r="O175" s="13"/>
+      <c r="P175" s="13"/>
+      <c r="Q175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T175" s="16"/>
+    </row>
+    <row r="176" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C176" s="8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E176" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G176" s="8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H176" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="I175" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J175" s="14" t="n">
+      <c r="I176" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J176" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="K175" s="13" t="s">
+      <c r="K176" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="L175" s="14" t="n">
+      <c r="L176" s="10" t="n">
         <v>1.1</v>
       </c>
-      <c r="M175" s="13" t="s">
+      <c r="M176" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="N176" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O176" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P176" s="10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Q176" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C177" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E177" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G177" s="12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H177" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I177" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J177" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K177" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="L177" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M177" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="N177" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O177" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P177" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q177" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D178" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E178" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F178" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G178" s="12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H178" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I178" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J178" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K178" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="L178" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M178" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="N178" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O178" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P178" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C179" s="12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="E179" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="F179" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G179" s="12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H179" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="I179" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J179" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K179" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="L179" s="14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M179" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="N175" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O175" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P175" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q175" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C176" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D176" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="E176" s="8" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="G176" s="8" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H176" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I176" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J176" s="10" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K176" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="L176" s="10" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M176" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="N176" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O176" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P176" s="10" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="Q176" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B177" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C177" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E177" s="12" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G177" s="12" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H177" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I177" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J177" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K177" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="L177" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M177" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="N177" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O177" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P177" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q177" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B178" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C178" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D178" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E178" s="12" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F178" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G178" s="12" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H178" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I178" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J178" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K178" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="L178" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M178" s="13" t="s">
-        <v>264</v>
-      </c>
-      <c r="N178" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O178" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P178" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q178" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B179" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="C179" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D179" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="E179" s="12" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="F179" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G179" s="12" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H179" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I179" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J179" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K179" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="L179" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M179" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="N179" s="11" t="b">
+      <c r="N179" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O179" s="13" t="s">
@@ -11350,107 +11512,96 @@
         <v>26</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>257</v>
+        <v>112</v>
       </c>
       <c r="C180" s="12" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="E180" s="12" t="n">
-        <v>20.5</v>
+        <v>5</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="G180" s="12" t="n">
-        <v>20.5</v>
+        <v>1.1</v>
       </c>
       <c r="H180" s="12" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="I180" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J180" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K180" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="L180" s="14" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="M180" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="N180" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O180" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="P180" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K180" s="13"/>
+      <c r="L180" s="14"/>
+      <c r="M180" s="13"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="13"/>
+      <c r="P180" s="13"/>
       <c r="Q180" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C181" s="12" t="n">
-        <v>25</v>
-      </c>
-      <c r="D181" s="12" t="s">
+      <c r="C181" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D181" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E181" s="12" t="n">
+      <c r="E181" s="8" t="n">
         <v>20.5</v>
       </c>
-      <c r="F181" s="12" t="s">
+      <c r="F181" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="G181" s="12" t="n">
+      <c r="G181" s="8" t="n">
         <v>20.5</v>
       </c>
-      <c r="H181" s="12" t="s">
+      <c r="H181" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="I181" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J181" s="14" t="n">
+      <c r="I181" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J181" s="10" t="n">
         <v>20.5</v>
       </c>
-      <c r="K181" s="13" t="s">
+      <c r="K181" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="L181" s="14" t="n">
+      <c r="L181" s="10" t="n">
         <v>20.5</v>
       </c>
-      <c r="M181" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="N181" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O181" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P181" s="13" t="n">
-        <v>0</v>
+      <c r="M181" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="N181" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O181" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P181" s="10" t="n">
+        <v>20.5</v>
       </c>
       <c r="Q181" s="1" t="s">
         <v>26</v>
@@ -11494,9 +11645,10 @@
         <v>20.5</v>
       </c>
       <c r="M182" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="N182" s="11" t="b">
+        <v>263</v>
+      </c>
+      <c r="N182" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O182" s="13" t="s">
@@ -11506,6 +11658,9 @@
         <v>0</v>
       </c>
       <c r="Q182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T182" s="16" t="s">
         <v>26</v>
       </c>
     </row>
@@ -11547,13 +11702,14 @@
         <v>20.5</v>
       </c>
       <c r="M183" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="N183" s="11" t="b">
+        <v>263</v>
+      </c>
+      <c r="N183" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O183" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P183" s="13" t="n">
         <v>0</v>
@@ -11561,61 +11717,68 @@
       <c r="Q183" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="184" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T183" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B184" s="8" t="s">
+      <c r="B184" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C184" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D184" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E184" s="8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="G184" s="8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H184" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="I184" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J184" s="10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K184" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="L184" s="10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M184" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="N184" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O184" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P184" s="10" t="n">
-        <v>2.2</v>
+      <c r="C184" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D184" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E184" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G184" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I184" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J184" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K184" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L184" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M184" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="N184" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O184" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P184" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q184" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="185" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T184" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="8" t="n">
         <v>2023</v>
       </c>
@@ -11626,40 +11789,41 @@
         <v>25</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E185" s="12" t="n">
-        <v>4.5</v>
+        <v>20.5</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="G185" s="12" t="n">
-        <v>2.2</v>
+        <v>20.5</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="I185" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J185" s="14" t="n">
-        <v>2.2</v>
+        <v>20.5</v>
       </c>
       <c r="K185" s="13" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="L185" s="14" t="n">
-        <v>2.2</v>
+        <v>20.5</v>
       </c>
       <c r="M185" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="N185" s="11" t="b">
+        <v>264</v>
+      </c>
+      <c r="N185" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O185" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P185" s="13" t="n">
         <v>0</v>
@@ -11667,61 +11831,65 @@
       <c r="Q185" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T185" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B186" s="8" t="s">
+      <c r="B186" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C186" s="8" t="n">
-        <v>25</v>
-      </c>
-      <c r="D186" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E186" s="8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="G186" s="8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H186" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="I186" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J186" s="10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K186" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="L186" s="10" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="M186" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="N186" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O186" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P186" s="10" t="n">
-        <v>2.3</v>
+      <c r="C186" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D186" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E186" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G186" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H186" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I186" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J186" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K186" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L186" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M186" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="N186" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O186" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P186" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q186" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="8" t="n">
         <v>2023</v>
       </c>
@@ -11732,142 +11900,151 @@
         <v>25</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E187" s="12" t="n">
-        <v>4.5</v>
+        <v>20.5</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
       <c r="G187" s="12" t="n">
-        <v>2.3</v>
+        <v>20.5</v>
       </c>
       <c r="H187" s="12" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="I187" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J187" s="14" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K187" s="14" t="s">
-        <v>281</v>
+        <v>20.5</v>
+      </c>
+      <c r="K187" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="L187" s="14" t="n">
-        <v>2.3</v>
+        <v>20.5</v>
       </c>
       <c r="M187" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="N187" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O187" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="P187" s="14" t="n">
+        <v>266</v>
+      </c>
+      <c r="N187" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O187" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P187" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q187" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="188" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T187" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B188" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C188" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D188" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E188" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="G188" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H188" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="I188" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J188" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K188" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="L188" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M188" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="N188" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O188" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P188" s="10" t="n">
+      <c r="B188" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C188" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D188" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E188" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F188" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G188" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H188" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J188" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K188" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L188" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M188" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="N188" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O188" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P188" s="13" t="n">
         <v>0</v>
       </c>
       <c r="Q188" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="189" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T188" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C189" s="12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E189" s="12" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G189" s="12" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H189" s="12" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="I189" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J189" s="14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K189" s="13" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="L189" s="14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="M189" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="N189" s="11" t="b">
+        <v>267</v>
+      </c>
+      <c r="N189" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O189" s="13" t="s">
@@ -11880,51 +12057,52 @@
         <v>26</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C190" s="12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E190" s="12" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G190" s="12" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H190" s="12" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="I190" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J190" s="14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K190" s="13" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="L190" s="14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="M190" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="N190" s="11" t="b">
+        <v>268</v>
+      </c>
+      <c r="N190" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O190" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P190" s="13" t="n">
         <v>0</v>
@@ -11932,52 +12110,56 @@
       <c r="Q190" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="191" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T190" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C191" s="12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E191" s="12" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>285</v>
+        <v>259</v>
       </c>
       <c r="G191" s="12" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="H191" s="12" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="I191" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J191" s="14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="K191" s="13" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="L191" s="14" t="n">
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="M191" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="N191" s="11" t="b">
+        <v>268</v>
+      </c>
+      <c r="N191" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O191" s="13" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="P191" s="13" t="n">
         <v>0</v>
@@ -11985,161 +12167,154 @@
       <c r="Q191" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="192" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="T191" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C192" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D192" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="E192" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F192" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="G192" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="H192" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="I192" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J192" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="K192" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="L192" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="M192" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="N192" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O192" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P192" s="10" t="n">
-        <v>3</v>
+      <c r="B192" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C192" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D192" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E192" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="F192" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G192" s="12" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H192" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="I192" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J192" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K192" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="L192" s="14" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M192" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="N192" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O192" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P192" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q192" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C193" s="12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>284</v>
+        <v>258</v>
       </c>
       <c r="E193" s="12" t="n">
-        <v>3</v>
+        <v>20.5</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="G193" s="12" t="n">
-        <v>3</v>
+        <v>20.5</v>
       </c>
       <c r="H193" s="12" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="I193" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J193" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K193" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="L193" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M193" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="N193" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O193" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P193" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K193" s="13"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="13"/>
+      <c r="N193" s="11"/>
+      <c r="O193" s="13"/>
+      <c r="P193" s="13"/>
       <c r="Q193" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B194" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C194" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D194" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E194" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="G194" s="12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H194" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="I194" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J194" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="K194" s="13" t="s">
-        <v>294</v>
-      </c>
-      <c r="L194" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="M194" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="N194" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O194" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="P194" s="13" t="n">
-        <v>0</v>
+      <c r="B194" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C194" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E194" s="8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G194" s="8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I194" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J194" s="10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K194" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="L194" s="10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M194" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="N194" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O194" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P194" s="10" t="n">
+        <v>2.2</v>
       </c>
       <c r="Q194" s="1" t="s">
         <v>26</v>
@@ -12150,46 +12325,47 @@
         <v>2023</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C195" s="12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E195" s="12" t="n">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="G195" s="12" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="H195" s="12" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="I195" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J195" s="14" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K195" s="13" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
       <c r="L195" s="14" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="M195" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="N195" s="11" t="b">
+        <v>276</v>
+      </c>
+      <c r="N195" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O195" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P195" s="13" t="n">
         <v>0</v>
@@ -12202,212 +12378,190 @@
       <c r="A196" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B196" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C196" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D196" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E196" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F196" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="G196" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H196" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="I196" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J196" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K196" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="L196" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="N196" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O196" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P196" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B196" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C196" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D196" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E196" s="12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F196" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="G196" s="12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H196" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I196" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J196" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" s="13"/>
+      <c r="L196" s="14"/>
+      <c r="M196" s="13"/>
+      <c r="N196" s="11"/>
+      <c r="O196" s="13"/>
+      <c r="P196" s="13"/>
       <c r="Q196" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B197" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="C197" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="D197" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E197" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F197" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G197" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H197" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I197" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J197" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K197" s="13" t="s">
-        <v>302</v>
-      </c>
-      <c r="L197" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="N197" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O197" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P197" s="13" t="n">
-        <v>0</v>
+      <c r="B197" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C197" s="8" t="n">
+        <v>25</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E197" s="8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="G197" s="8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="I197" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J197" s="10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K197" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="L197" s="10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M197" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="N197" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O197" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P197" s="10" t="n">
+        <v>2.3</v>
       </c>
       <c r="Q197" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C198" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D198" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E198" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F198" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G198" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H198" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="I198" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J198" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K198" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="L198" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="N198" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O198" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P198" s="10" t="n">
-        <v>1</v>
+      <c r="B198" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C198" s="12" t="n">
+        <v>25</v>
+      </c>
+      <c r="D198" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="E198" s="12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="F198" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G198" s="12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H198" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="I198" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J198" s="14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K198" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="L198" s="14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M198" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="N198" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O198" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P198" s="14" t="n">
+        <v>0</v>
       </c>
       <c r="Q198" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="8" t="n">
         <v>2023</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>283</v>
+        <v>257</v>
       </c>
       <c r="C199" s="12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="E199" s="12" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="G199" s="12" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H199" s="12" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="I199" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J199" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K199" s="13" t="s">
-        <v>307</v>
-      </c>
-      <c r="L199" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="N199" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O199" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P199" s="13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K199" s="14"/>
+      <c r="L199" s="14"/>
+      <c r="M199" s="13"/>
+      <c r="N199" s="11"/>
+      <c r="O199" s="14"/>
+      <c r="P199" s="14"/>
       <c r="Q199" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12421,43 +12575,44 @@
         <v>15</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E200" s="8" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="G200" s="8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H200" s="8" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="I200" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J200" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K200" s="9" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="L200" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="N200" s="11" t="b">
+        <v>288</v>
+      </c>
+      <c r="N200" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O200" s="9" t="s">
         <v>25</v>
       </c>
       <c r="P200" s="10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q200" s="1" t="s">
         <v>26</v>
@@ -12474,36 +12629,37 @@
         <v>15</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E201" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="G201" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201" s="12" t="s">
-        <v>311</v>
+        <v>286</v>
       </c>
       <c r="I201" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J201" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K201" s="13" t="s">
-        <v>312</v>
+        <v>287</v>
       </c>
       <c r="L201" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M201" s="13" t="s">
-        <v>314</v>
-      </c>
-      <c r="N201" s="11" t="b">
+        <v>289</v>
+      </c>
+      <c r="N201" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O201" s="13" t="s">
@@ -12520,50 +12676,51 @@
       <c r="A202" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C202" s="8" t="n">
+      <c r="C202" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="D202" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E202" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F202" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G202" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H202" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="I202" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J202" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K202" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="L202" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="N202" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O202" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P202" s="10" t="n">
-        <v>1</v>
+      <c r="D202" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E202" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G202" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H202" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I202" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J202" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="L202" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M202" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="N202" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O202" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P202" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q202" s="1" t="s">
         <v>26</v>
@@ -12580,36 +12737,37 @@
         <v>15</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E203" s="12" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="G203" s="12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203" s="12" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="I203" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J203" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K203" s="13" t="s">
-        <v>317</v>
+        <v>287</v>
       </c>
       <c r="L203" s="14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M203" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="N203" s="11" t="b">
+        <v>291</v>
+      </c>
+      <c r="N203" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O203" s="13" t="s">
@@ -12622,166 +12780,156 @@
         <v>26</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C204" s="8" t="n">
+      <c r="C204" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="D204" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E204" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F204" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G204" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H204" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="I204" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J204" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K204" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="L204" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="N204" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O204" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P204" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="D204" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E204" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="G204" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="I204" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J204" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" s="13"/>
+      <c r="L204" s="14"/>
+      <c r="M204" s="13"/>
+      <c r="N204" s="11"/>
+      <c r="O204" s="13"/>
+      <c r="P204" s="13"/>
       <c r="Q204" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C205" s="12" t="n">
+      <c r="C205" s="8" t="n">
         <v>15</v>
       </c>
-      <c r="D205" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E205" s="12" t="n">
-        <v>6</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="G205" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="H205" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="I205" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J205" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K205" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="L205" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="N205" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O205" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="P205" s="13" t="n">
-        <v>0</v>
+      <c r="D205" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="E205" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="G205" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="I205" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J205" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="K205" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="L205" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="M205" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="N205" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O205" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P205" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="Q205" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="8" t="n">
         <v>2023</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C206" s="8" t="n">
+      <c r="C206" s="12" t="n">
         <v>15</v>
       </c>
-      <c r="D206" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E206" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F206" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="G206" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="H206" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="I206" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J206" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K206" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="L206" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="N206" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O206" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P206" s="10" t="n">
-        <v>1</v>
+      <c r="D206" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E206" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G206" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H206" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I206" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J206" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K206" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="L206" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M206" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="N206" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O206" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P206" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q206" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="8" t="n">
         <v>2023</v>
       </c>
@@ -12792,96 +12940,98 @@
         <v>15</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="E207" s="12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>325</v>
+        <v>292</v>
       </c>
       <c r="G207" s="12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H207" s="12" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="I207" s="13" t="s">
         <v>22</v>
       </c>
       <c r="J207" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K207" s="13" t="s">
-        <v>327</v>
+        <v>294</v>
       </c>
       <c r="L207" s="14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M207" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="N207" s="11" t="b">
+        <v>297</v>
+      </c>
+      <c r="N207" s="11" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="O207" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P207" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q207" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C208" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E208" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G208" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H208" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I208" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J208" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K208" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="L208" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="M208" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="N208" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O208" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P207" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q207" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="8" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B208" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C208" s="8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D208" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="E208" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G208" s="8" t="n">
-        <v>6</v>
-      </c>
-      <c r="H208" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="I208" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J208" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="K208" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="L208" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="M208" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="N208" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O208" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="P208" s="10" t="n">
-        <v>6</v>
+      <c r="P208" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="Q208" s="1" t="s">
         <v>26</v>
@@ -12898,48 +13048,1074 @@
         <v>15</v>
       </c>
       <c r="D209" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E209" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F209" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="G209" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H209" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="I209" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J209" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" s="13"/>
+      <c r="L209" s="14"/>
+      <c r="M209" s="13"/>
+      <c r="N209" s="11"/>
+      <c r="O209" s="13"/>
+      <c r="P209" s="13"/>
+      <c r="Q209" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B210" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C210" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E210" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F210" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="G210" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="I210" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J210" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="L210" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="N210" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O210" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P210" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C211" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D211" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E211" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F211" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G211" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H211" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I211" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J211" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="L211" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="N211" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O211" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P211" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q211" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C212" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D212" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E212" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F212" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G212" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H212" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I212" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J212" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" s="13"/>
+      <c r="L212" s="14"/>
+      <c r="M212" s="13"/>
+      <c r="N212" s="11"/>
+      <c r="O212" s="13"/>
+      <c r="P212" s="13"/>
+      <c r="Q212" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B213" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C213" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E213" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G213" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="I213" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J213" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="L213" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="N213" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O213" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P213" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q213" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B214" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C214" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D214" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E214" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F214" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G214" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I214" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J214" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K214" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L214" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="N214" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O214" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P214" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q214" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B215" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C215" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D215" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E215" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="G215" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H215" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I215" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J215" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" s="13"/>
+      <c r="L215" s="14"/>
+      <c r="M215" s="13"/>
+      <c r="N215" s="11"/>
+      <c r="O215" s="13"/>
+      <c r="P215" s="13"/>
+      <c r="Q215" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B216" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C216" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E216" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F216" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="G216" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H216" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I216" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J216" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="L216" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="N216" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O216" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P216" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q216" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C217" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D217" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E217" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F217" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G217" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I217" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J217" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K217" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L217" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="N217" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O217" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="P217" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q217" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C218" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D218" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E218" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F218" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G218" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H218" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="I218" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J218" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" s="13"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="13"/>
+      <c r="N218" s="11"/>
+      <c r="O218" s="13"/>
+      <c r="P218" s="13"/>
+      <c r="Q218" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B219" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C219" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E219" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F219" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G219" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="I219" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J219" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="L219" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="N219" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O219" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P219" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C220" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E220" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G220" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H220" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I220" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J220" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="L220" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="N220" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O220" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P220" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q220" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C221" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E221" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="G221" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I221" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J221" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" s="13"/>
+      <c r="L221" s="14"/>
+      <c r="M221" s="13"/>
+      <c r="N221" s="11"/>
+      <c r="O221" s="13"/>
+      <c r="P221" s="13"/>
+      <c r="Q221" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C222" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E222" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F222" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G222" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I222" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J222" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K222" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="L222" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="N222" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O222" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P222" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C223" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E223" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G223" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H223" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I223" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J223" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="L223" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="N223" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O223" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P223" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q223" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C224" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E224" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G224" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I224" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J224" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" s="13"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="13"/>
+      <c r="N224" s="11"/>
+      <c r="O224" s="13"/>
+      <c r="P224" s="13"/>
+      <c r="Q224" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B225" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C225" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D225" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="E225" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="F225" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G225" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H225" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I225" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J225" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K225" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="L225" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="N225" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O225" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P225" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q225" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B226" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C226" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E226" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G226" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H226" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I226" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J226" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="L226" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="N226" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O226" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="P226" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B227" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C227" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D227" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E227" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F227" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="G227" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="I227" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J227" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" s="13"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="13"/>
+      <c r="N227" s="11"/>
+      <c r="O227" s="13"/>
+      <c r="P227" s="13"/>
+      <c r="Q227" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B228" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C228" s="8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D228" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E209" s="12" t="n">
+      <c r="E228" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="F209" s="12" t="s">
+      <c r="F228" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G209" s="12" t="n">
+      <c r="G228" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="H209" s="12" t="s">
+      <c r="H228" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="I209" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J209" s="14" t="n">
+      <c r="I228" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J228" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="K209" s="13" t="s">
+      <c r="K228" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="L209" s="14" t="n">
+      <c r="L228" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="M209" s="13" t="s">
+      <c r="M228" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="N228" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O228" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="P228" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q228" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B229" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C229" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D229" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E229" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F229" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G229" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H229" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I229" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J229" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="K229" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="L229" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="M229" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="N209" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="O209" s="13" t="s">
+      <c r="N229" s="11" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="O229" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P209" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q209" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
+      <c r="P229" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q229" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A230" s="8" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C230" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D230" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="E230" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="F230" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G230" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="H230" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="I230" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="J230" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q230" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.511811023622047" footer="0.511811023622047"/>
@@ -12983,21 +14159,21 @@
       <c r="D1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="16" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="19" t="s">
         <v>339</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>340</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -13005,12 +14181,12 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20" t="s">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="19" t="s">
         <v>342</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -13018,14 +14194,14 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="19" t="s">
         <v>345</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -13033,10 +14209,10 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20" t="s">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19" t="s">
         <v>346</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -13044,12 +14220,12 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="19"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>348</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -13057,10 +14233,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19" t="s">
         <v>349</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -13068,14 +14244,14 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20" t="s">
         <v>350</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="19" t="s">
         <v>352</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -13083,10 +14259,10 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>353</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -13094,10 +14270,10 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>354</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -13105,12 +14281,12 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="64.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>356</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -13118,10 +14294,10 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20" t="s">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19" t="s">
         <v>357</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -13129,10 +14305,10 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19" t="s">
         <v>358</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -13140,14 +14316,14 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20" t="s">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>361</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -13155,16 +14331,16 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>363</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>365</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -13172,12 +14348,12 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20" t="s">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>367</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -13185,12 +14361,12 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20" t="s">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>369</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -13198,12 +14374,12 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20" t="s">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>371</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -13211,10 +14387,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19" t="s">
         <v>372</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -13222,14 +14398,14 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="19"/>
+      <c r="B20" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>375</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -13237,12 +14413,12 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20" t="s">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>377</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -13250,12 +14426,12 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="19" t="s">
         <v>379</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -13263,10 +14439,10 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20" t="s">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19" t="s">
         <v>380</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -13274,14 +14450,14 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20" t="s">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="19" t="s">
         <v>383</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -13289,14 +14465,14 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>386</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -13304,14 +14480,14 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>389</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -13319,12 +14495,12 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20" t="s">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>391</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -13332,12 +14508,12 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20" t="s">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>393</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -13345,16 +14521,16 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="60.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>397</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -13362,14 +14538,14 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20" t="s">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>400</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -13377,12 +14553,12 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20" t="s">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="19" t="s">
         <v>402</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -13390,16 +14566,16 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="52.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="19" t="s">
         <v>406</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -13407,12 +14583,12 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20" t="s">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="19" t="s">
         <v>408</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -13420,14 +14596,14 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="77.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="19" t="s">
         <v>411</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -13435,12 +14611,12 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20" t="s">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="19" t="s">
         <v>413</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -13448,12 +14624,12 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20" t="s">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="19" t="s">
         <v>415</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -13461,12 +14637,12 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20" t="s">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="19" t="s">
         <v>417</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -13474,12 +14650,12 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="19" t="s">
         <v>419</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -13487,12 +14663,12 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="s">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>421</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -13500,14 +14676,14 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20" t="s">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>424</v>
       </c>
       <c r="E40" s="2" t="s">
